--- a/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
+++ b/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B588E39-A84A-4813-9A64-05835248BA45}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4238693C-74CB-482C-8D15-5F2A9E982470}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7581,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:E544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
+++ b/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD20864A-FB96-47BD-8FF2-5480BE6F28DD}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2410CE-0C3E-41EF-B702-839D805DDCF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7592,7 +7592,7 @@
   <dimension ref="A1:J782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
+++ b/Datasets/FINAL_Median_Income_ACS_Supplemented_by_SAIPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2410CE-0C3E-41EF-B702-839D805DDCF1}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{D2CAA6D8-C77E-4D44-9783-11BC20EDE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC6C5B7-BB73-47AC-B9D4-064F6B329654}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7103,7 +7103,7 @@
     <t>City_Rank_by_Population(2021)</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimated_Median_Household_Income </t>
+    <t>Estimated_Median_Household_Income</t>
   </si>
 </sst>
 </file>
@@ -7166,7 +7166,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7183,19 +7183,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7205,6 +7199,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7257,9 +7254,6 @@
     <dxf>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7274,19 +7268,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BED62C83-E231-463B-90AF-A0A2E765AD84}" name="Table1" displayName="Table1" ref="A1:J782" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BED62C83-E231-463B-90AF-A0A2E765AD84}" name="Table1" displayName="Table1" ref="A1:J782" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11" headerRowCellStyle="Normal">
   <autoFilter ref="A1:J782" xr:uid="{BED62C83-E231-463B-90AF-A0A2E765AD84}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{926AEEE4-255C-4B1D-B22D-ACC618A82366}" name="City_Rank_by_Population(2021)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{76C4DEF7-B871-4E8D-89FD-6917C9925534}" name="State" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{21F36C3B-A18D-41E6-85B3-BD9ACB8BF794}" name="State_Abbrieviation" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{10B9D672-A1DC-44AF-899A-FEC69A15BB95}" name="City" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{F3931288-1883-49FA-B3A5-9A7CB4DC6434}" name="Observation_Date" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{EA291F0F-DA70-4529-8AB1-739F95029817}" name="Estimated_Median_Household_Income " dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{C9DE97AA-55DB-4C87-AF4D-C3DCF3EB9E02}" name="2021_estimated_population" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{4455DFDF-740D-476B-860E-FF8AC6E1AA63}" name="2020_census" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{FF29AA78-549B-42EA-ABF7-C184AE57DDF5}" name="Note" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1DF076FF-3B36-4E82-98A8-0512605DE569}" name="Link_to_Survey" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{926AEEE4-255C-4B1D-B22D-ACC618A82366}" name="City_Rank_by_Population(2021)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{76C4DEF7-B871-4E8D-89FD-6917C9925534}" name="State" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{21F36C3B-A18D-41E6-85B3-BD9ACB8BF794}" name="State_Abbrieviation" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{10B9D672-A1DC-44AF-899A-FEC69A15BB95}" name="City" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F3931288-1883-49FA-B3A5-9A7CB4DC6434}" name="Observation_Date" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{EA291F0F-DA70-4529-8AB1-739F95029817}" name="Estimated_Median_Household_Income" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{C9DE97AA-55DB-4C87-AF4D-C3DCF3EB9E02}" name="2021_estimated_population" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{4455DFDF-740D-476B-860E-FF8AC6E1AA63}" name="2020_census" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{FF29AA78-549B-42EA-ABF7-C184AE57DDF5}" name="Note" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1DF076FF-3B36-4E82-98A8-0512605DE569}" name="Link_to_Survey" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7592,7 +7586,7 @@
   <dimension ref="A1:J782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,34 +7605,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>2355</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>2356</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>2349</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>2352</v>
       </c>
     </row>
@@ -7658,7 +7652,7 @@
       <c r="E2" s="3">
         <v>40544</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>49461</v>
       </c>
       <c r="G2" s="4">
@@ -7690,7 +7684,7 @@
       <c r="E3" s="3">
         <v>40909</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>50895</v>
       </c>
       <c r="G3" s="4">
@@ -7722,7 +7716,7 @@
       <c r="E4" s="3">
         <v>41275</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>52223</v>
       </c>
       <c r="G4" s="4">
@@ -7754,7 +7748,7 @@
       <c r="E5" s="3">
         <v>41640</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>52996</v>
       </c>
       <c r="G5" s="4">
@@ -7786,7 +7780,7 @@
       <c r="E6" s="3">
         <v>42005</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>55752</v>
       </c>
       <c r="G6" s="4">
@@ -7818,7 +7812,7 @@
       <c r="E7" s="3">
         <v>42370</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>58856</v>
       </c>
       <c r="G7" s="4">
@@ -7850,7 +7844,7 @@
       <c r="E8" s="3">
         <v>42736</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>60879</v>
       </c>
       <c r="G8" s="4">
@@ -7882,7 +7876,7 @@
       <c r="E9" s="3">
         <v>43101</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>63799</v>
       </c>
       <c r="G9" s="4">
@@ -7914,7 +7908,7 @@
       <c r="E10" s="3">
         <v>43466</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>69407</v>
       </c>
       <c r="G10" s="4">
@@ -7946,7 +7940,7 @@
       <c r="E11" s="3">
         <v>43831</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>67046</v>
       </c>
       <c r="G11" s="4">
@@ -7978,7 +7972,7 @@
       <c r="E12" s="3">
         <v>44197</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>67997</v>
       </c>
       <c r="G12" s="4">
@@ -8010,7 +8004,7 @@
       <c r="E13" s="3">
         <v>40544</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>46148</v>
       </c>
       <c r="G13" s="4">
@@ -8042,7 +8036,7 @@
       <c r="E14" s="3">
         <v>40909</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>46803</v>
       </c>
       <c r="G14" s="4">
@@ -8074,7 +8068,7 @@
       <c r="E15" s="3">
         <v>41275</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>48466</v>
       </c>
       <c r="G15" s="4">
@@ -8106,7 +8100,7 @@
       <c r="E16" s="3">
         <v>41640</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>50544</v>
       </c>
       <c r="G16" s="4">
@@ -8138,7 +8132,7 @@
       <c r="E17" s="3">
         <v>42005</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>52024</v>
       </c>
       <c r="G17" s="4">
@@ -8170,7 +8164,7 @@
       <c r="E18" s="3">
         <v>42370</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>54432</v>
       </c>
       <c r="G18" s="4">
@@ -8202,7 +8196,7 @@
       <c r="E19" s="3">
         <v>42736</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>60197</v>
       </c>
       <c r="G19" s="4">
@@ -8234,7 +8228,7 @@
       <c r="E20" s="3">
         <v>43101</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>62474</v>
       </c>
       <c r="G20" s="4">
@@ -8266,7 +8260,7 @@
       <c r="E21" s="3">
         <v>43466</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>67418</v>
       </c>
       <c r="G21" s="4">
@@ -8298,7 +8292,7 @@
       <c r="E22" s="3">
         <v>43831</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>65290</v>
       </c>
       <c r="G22" s="4">
@@ -8330,7 +8324,7 @@
       <c r="E23" s="3">
         <v>44197</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>70372</v>
       </c>
       <c r="G23" s="4">
@@ -8362,7 +8356,7 @@
       <c r="E24" s="3">
         <v>40544</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>43628</v>
       </c>
       <c r="G24" s="4">
@@ -8394,7 +8388,7 @@
       <c r="E25" s="3">
         <v>40909</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>45214</v>
       </c>
       <c r="G25" s="4">
@@ -8426,7 +8420,7 @@
       <c r="E26" s="3">
         <v>41275</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>47099</v>
       </c>
       <c r="G26" s="4">
@@ -8458,7 +8452,7 @@
       <c r="E27" s="3">
         <v>41640</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>48734</v>
       </c>
       <c r="G27" s="4">
@@ -8490,7 +8484,7 @@
       <c r="E28" s="3">
         <v>42005</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>50702</v>
       </c>
       <c r="G28" s="4">
@@ -8522,7 +8516,7 @@
       <c r="E29" s="3">
         <v>42370</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>53006</v>
       </c>
       <c r="G29" s="4">
@@ -8554,7 +8548,7 @@
       <c r="E30" s="3">
         <v>42736</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>55295</v>
       </c>
       <c r="G30" s="4">
@@ -8586,7 +8580,7 @@
       <c r="E31" s="3">
         <v>43101</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>57238</v>
       </c>
       <c r="G31" s="4">
@@ -8618,7 +8612,7 @@
       <c r="E32" s="3">
         <v>43466</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>61811</v>
       </c>
       <c r="G32" s="4">
@@ -8650,7 +8644,7 @@
       <c r="E33" s="3">
         <v>43831</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>62097</v>
       </c>
       <c r="G33" s="4">
@@ -8682,7 +8676,7 @@
       <c r="E34" s="3">
         <v>44197</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>66576</v>
       </c>
       <c r="G34" s="4">
@@ -8714,7 +8708,7 @@
       <c r="E35" s="3">
         <v>40544</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>42877</v>
       </c>
       <c r="G35" s="4">
@@ -8746,7 +8740,7 @@
       <c r="E36" s="3">
         <v>40909</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>42847</v>
       </c>
       <c r="G36" s="4">
@@ -8778,7 +8772,7 @@
       <c r="E37" s="3">
         <v>41275</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>45353</v>
       </c>
       <c r="G37" s="4">
@@ -8810,7 +8804,7 @@
       <c r="E38" s="3">
         <v>41640</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>45460</v>
       </c>
       <c r="G38" s="4">
@@ -8842,7 +8836,7 @@
       <c r="E39" s="3">
         <v>42005</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>48064</v>
       </c>
       <c r="G39" s="4">
@@ -8874,7 +8868,7 @@
       <c r="E40" s="3">
         <v>42370</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>47793</v>
       </c>
       <c r="G40" s="4">
@@ -8906,7 +8900,7 @@
       <c r="E41" s="3">
         <v>42736</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>50896</v>
       </c>
       <c r="G41" s="4">
@@ -8938,7 +8932,7 @@
       <c r="E42" s="3">
         <v>43101</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>51203</v>
       </c>
       <c r="G42" s="4">
@@ -8970,7 +8964,7 @@
       <c r="E43" s="3">
         <v>43466</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>52450</v>
       </c>
       <c r="G43" s="4">
@@ -9002,7 +8996,7 @@
       <c r="E44" s="3">
         <v>43831</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>53600</v>
       </c>
       <c r="G44" s="4">
@@ -9034,7 +9028,7 @@
       <c r="E45" s="3">
         <v>44197</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>55499</v>
       </c>
       <c r="G45" s="4">
@@ -9066,7 +9060,7 @@
       <c r="E46" s="3">
         <v>40544</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>43960</v>
       </c>
       <c r="G46" s="4">
@@ -9098,7 +9092,7 @@
       <c r="E47" s="3">
         <v>40909</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>44153</v>
       </c>
       <c r="G47" s="4">
@@ -9130,7 +9124,7 @@
       <c r="E48" s="3">
         <v>41275</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <v>46601</v>
       </c>
       <c r="G48" s="4">
@@ -9162,7 +9156,7 @@
       <c r="E49" s="3">
         <v>41640</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>47929</v>
       </c>
       <c r="G49" s="4">
@@ -9194,7 +9188,7 @@
       <c r="E50" s="3">
         <v>42005</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <v>48452</v>
       </c>
       <c r="G50" s="4">
@@ -9226,7 +9220,7 @@
       <c r="E51" s="3">
         <v>42370</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>52062</v>
       </c>
       <c r="G51" s="4">
@@ -9258,7 +9252,7 @@
       <c r="E52" s="3">
         <v>42736</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>56696</v>
       </c>
       <c r="G52" s="4">
@@ -9290,7 +9284,7 @@
       <c r="E53" s="3">
         <v>43101</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>57957</v>
       </c>
       <c r="G53" s="4">
@@ -9322,7 +9316,7 @@
       <c r="E54" s="3">
         <v>43466</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>60931</v>
       </c>
       <c r="G54" s="4">
@@ -9354,7 +9348,7 @@
       <c r="E55" s="3">
         <v>43831</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>60914</v>
       </c>
       <c r="G55" s="4">
@@ -9386,7 +9380,7 @@
       <c r="E56" s="3">
         <v>44197</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>68435</v>
       </c>
       <c r="G56" s="4">
@@ -9418,7 +9412,7 @@
       <c r="E57" s="3">
         <v>40544</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>34207</v>
       </c>
       <c r="G57" s="4">
@@ -9450,7 +9444,7 @@
       <c r="E58" s="3">
         <v>40909</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <v>35386</v>
       </c>
       <c r="G58" s="4">
@@ -9482,7 +9476,7 @@
       <c r="E59" s="3">
         <v>41275</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>36836</v>
       </c>
       <c r="G59" s="4">
@@ -9514,7 +9508,7 @@
       <c r="E60" s="3">
         <v>41640</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>39043</v>
       </c>
       <c r="G60" s="4">
@@ -9546,7 +9540,7 @@
       <c r="E61" s="3">
         <v>42005</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <v>41233</v>
       </c>
       <c r="G61" s="4">
@@ -9578,7 +9572,7 @@
       <c r="E62" s="3">
         <v>42370</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <v>41449</v>
       </c>
       <c r="G62" s="4">
@@ -9610,7 +9604,7 @@
       <c r="E63" s="3">
         <v>42736</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <v>39759</v>
       </c>
       <c r="G63" s="4">
@@ -9642,7 +9636,7 @@
       <c r="E64" s="3">
         <v>43101</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>46116</v>
       </c>
       <c r="G64" s="4">
@@ -9674,7 +9668,7 @@
       <c r="E65" s="3">
         <v>43466</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <v>47474</v>
       </c>
       <c r="G65" s="4">
@@ -9706,7 +9700,7 @@
       <c r="E66" s="3">
         <v>43831</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <v>49127</v>
       </c>
       <c r="G66" s="4">
@@ -9738,7 +9732,7 @@
       <c r="E67" s="3">
         <v>44197</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <v>52899</v>
       </c>
       <c r="G67" s="4">
@@ -9770,7 +9764,7 @@
       <c r="E68" s="3">
         <v>40544</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <v>42613</v>
       </c>
       <c r="G68" s="4">
@@ -9802,7 +9796,7 @@
       <c r="E69" s="3">
         <v>40909</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <v>45524</v>
       </c>
       <c r="G69" s="4">
@@ -9834,7 +9828,7 @@
       <c r="E70" s="3">
         <v>41275</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <v>45399</v>
       </c>
       <c r="G70" s="4">
@@ -9866,7 +9860,7 @@
       <c r="E71" s="3">
         <v>41640</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <v>50699</v>
       </c>
       <c r="G71" s="4">
@@ -9878,7 +9872,7 @@
       <c r="I71" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -9898,7 +9892,7 @@
       <c r="E72" s="3">
         <v>42005</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <v>48869</v>
       </c>
       <c r="G72" s="4">
@@ -9930,7 +9924,7 @@
       <c r="E73" s="3">
         <v>42370</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <v>49268</v>
       </c>
       <c r="G73" s="4">
@@ -9962,7 +9956,7 @@
       <c r="E74" s="3">
         <v>42736</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <v>50044</v>
       </c>
       <c r="G74" s="4">
@@ -9994,7 +9988,7 @@
       <c r="E75" s="3">
         <v>43101</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <v>49024</v>
       </c>
       <c r="G75" s="4">
@@ -10026,7 +10020,7 @@
       <c r="E76" s="3">
         <v>43466</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <v>53751</v>
       </c>
       <c r="G76" s="4">
@@ -10058,7 +10052,7 @@
       <c r="E77" s="3">
         <v>43831</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <v>53420</v>
       </c>
       <c r="G77" s="4">
@@ -10090,7 +10084,7 @@
       <c r="E78" s="3">
         <v>44197</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <v>54923</v>
       </c>
       <c r="G78" s="4">
@@ -10122,7 +10116,7 @@
       <c r="E79" s="3">
         <v>40544</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <v>60797</v>
       </c>
       <c r="G79" s="4">
@@ -10154,7 +10148,7 @@
       <c r="E80" s="3">
         <v>40909</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <v>62395</v>
       </c>
       <c r="G80" s="4">
@@ -10186,7 +10180,7 @@
       <c r="E81" s="3">
         <v>41275</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <v>63456</v>
       </c>
       <c r="G81" s="4">
@@ -10218,7 +10212,7 @@
       <c r="E82" s="3">
         <v>41640</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <v>67799</v>
       </c>
       <c r="G82" s="4">
@@ -10250,7 +10244,7 @@
       <c r="E83" s="3">
         <v>42005</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <v>67871</v>
       </c>
       <c r="G83" s="4">
@@ -10282,7 +10276,7 @@
       <c r="E84" s="3">
         <v>42370</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <v>71481</v>
       </c>
       <c r="G84" s="4">
@@ -10314,7 +10308,7 @@
       <c r="E85" s="3">
         <v>42736</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <v>76662</v>
       </c>
       <c r="G85" s="4">
@@ -10346,7 +10340,7 @@
       <c r="E86" s="3">
         <v>43101</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <v>79646</v>
       </c>
       <c r="G86" s="4">
@@ -10378,7 +10372,7 @@
       <c r="E87" s="3">
         <v>43466</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <v>85507</v>
       </c>
       <c r="G87" s="4">
@@ -10410,7 +10404,7 @@
       <c r="E88" s="3">
         <v>43831</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <v>83454</v>
       </c>
       <c r="G88" s="4">
@@ -10442,7 +10436,7 @@
       <c r="E89" s="3">
         <v>44197</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <v>93042</v>
       </c>
       <c r="G89" s="4">
@@ -10474,7 +10468,7 @@
       <c r="E90" s="3">
         <v>40544</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <v>40585</v>
       </c>
       <c r="G90" s="4">
@@ -10506,7 +10500,7 @@
       <c r="E91" s="3">
         <v>40909</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <v>41354</v>
       </c>
       <c r="G91" s="4">
@@ -10538,7 +10532,7 @@
       <c r="E92" s="3">
         <v>41275</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <v>41978</v>
       </c>
       <c r="G92" s="4">
@@ -10570,7 +10564,7 @@
       <c r="E93" s="3">
         <v>41640</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <v>43003</v>
       </c>
       <c r="G93" s="4">
@@ -10602,7 +10596,7 @@
       <c r="E94" s="3">
         <v>42005</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <v>45918</v>
       </c>
       <c r="G94" s="4">
@@ -10634,7 +10628,7 @@
       <c r="E95" s="3">
         <v>42370</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <v>47243</v>
       </c>
       <c r="G95" s="4">
@@ -10666,7 +10660,7 @@
       <c r="E96" s="3">
         <v>42736</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>50627</v>
       </c>
       <c r="G96" s="4">
@@ -10698,7 +10692,7 @@
       <c r="E97" s="3">
         <v>43101</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>52210</v>
       </c>
       <c r="G97" s="4">
@@ -10730,7 +10724,7 @@
       <c r="E98" s="3">
         <v>43466</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>55332</v>
       </c>
       <c r="G98" s="4">
@@ -10762,7 +10756,7 @@
       <c r="E99" s="3">
         <v>43831</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <v>54747</v>
       </c>
       <c r="G99" s="4">
@@ -10794,7 +10788,7 @@
       <c r="E100" s="3">
         <v>44197</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <v>57995</v>
       </c>
       <c r="G100" s="4">
@@ -10826,7 +10820,7 @@
       <c r="E101" s="3">
         <v>40544</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <v>76593</v>
       </c>
       <c r="G101" s="4">
@@ -10858,7 +10852,7 @@
       <c r="E102" s="3">
         <v>40909</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>80090</v>
       </c>
       <c r="G102" s="4">
@@ -10890,7 +10884,7 @@
       <c r="E103" s="3">
         <v>41275</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <v>80977</v>
       </c>
       <c r="G103" s="4">
@@ -10922,7 +10916,7 @@
       <c r="E104" s="3">
         <v>41640</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <v>87210</v>
       </c>
       <c r="G104" s="4">
@@ -10954,7 +10948,7 @@
       <c r="E105" s="3">
         <v>42005</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <v>91451</v>
       </c>
       <c r="G105" s="4">
@@ -10986,7 +10980,7 @@
       <c r="E106" s="3">
         <v>42370</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>101940</v>
       </c>
       <c r="G106" s="4">
@@ -11018,7 +11012,7 @@
       <c r="E107" s="3">
         <v>42736</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <v>104675</v>
       </c>
       <c r="G107" s="4">
@@ -11050,7 +11044,7 @@
       <c r="E108" s="3">
         <v>43101</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>113036</v>
       </c>
       <c r="G108" s="4">
@@ -11082,7 +11076,7 @@
       <c r="E109" s="3">
         <v>43466</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>115893</v>
       </c>
       <c r="G109" s="4">
@@ -11114,7 +11108,7 @@
       <c r="E110" s="3">
         <v>43831</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>117324</v>
       </c>
       <c r="G110" s="4">
@@ -11146,7 +11140,7 @@
       <c r="E111" s="3">
         <v>44197</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>126377</v>
       </c>
       <c r="G111" s="4">
@@ -11178,7 +11172,7 @@
       <c r="E112" s="3">
         <v>40544</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="6">
         <v>49987</v>
       </c>
       <c r="G112" s="4">
@@ -11210,7 +11204,7 @@
       <c r="E113" s="3">
         <v>40909</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>52453</v>
       </c>
       <c r="G113" s="4">
@@ -11242,7 +11236,7 @@
       <c r="E114" s="3">
         <v>41275</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <v>56351</v>
       </c>
       <c r="G114" s="4">
@@ -11274,7 +11268,7 @@
       <c r="E115" s="3">
         <v>41640</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>58458</v>
       </c>
       <c r="G115" s="4">
@@ -11306,7 +11300,7 @@
       <c r="E116" s="3">
         <v>42005</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="6">
         <v>62250</v>
       </c>
       <c r="G116" s="4">
@@ -11338,7 +11332,7 @@
       <c r="E117" s="3">
         <v>42370</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="6">
         <v>66697</v>
       </c>
       <c r="G117" s="4">
@@ -11370,7 +11364,7 @@
       <c r="E118" s="3">
         <v>42736</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <v>67755</v>
       </c>
       <c r="G118" s="4">
@@ -11402,7 +11396,7 @@
       <c r="E119" s="3">
         <v>43101</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <v>71543</v>
       </c>
       <c r="G119" s="4">
@@ -11434,7 +11428,7 @@
       <c r="E120" s="3">
         <v>43466</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="6">
         <v>75413</v>
       </c>
       <c r="G120" s="4">
@@ -11466,7 +11460,7 @@
       <c r="E121" s="3">
         <v>43831</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="6">
         <v>75752</v>
       </c>
       <c r="G121" s="4">
@@ -11498,7 +11492,7 @@
       <c r="E122" s="3">
         <v>44197</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <v>79542</v>
       </c>
       <c r="G122" s="4">
@@ -11530,7 +11524,7 @@
       <c r="E123" s="3">
         <v>40544</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="6">
         <v>44802</v>
       </c>
       <c r="G123" s="4">
@@ -11562,7 +11556,7 @@
       <c r="E124" s="3">
         <v>40909</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="6">
         <v>42800</v>
       </c>
       <c r="G124" s="4">
@@ -11594,7 +11588,7 @@
       <c r="E125" s="3">
         <v>41275</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="6">
         <v>47424</v>
       </c>
       <c r="G125" s="4">
@@ -11626,7 +11620,7 @@
       <c r="E126" s="3">
         <v>41640</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="6">
         <v>44591</v>
       </c>
       <c r="G126" s="4">
@@ -11658,7 +11652,7 @@
       <c r="E127" s="3">
         <v>42005</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <v>48239</v>
       </c>
       <c r="G127" s="4">
@@ -11690,7 +11684,7 @@
       <c r="E128" s="3">
         <v>42370</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="6">
         <v>51298</v>
       </c>
       <c r="G128" s="4">
@@ -11722,7 +11716,7 @@
       <c r="E129" s="3">
         <v>42736</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6">
         <v>51497</v>
       </c>
       <c r="G129" s="4">
@@ -11754,7 +11748,7 @@
       <c r="E130" s="3">
         <v>43101</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="6">
         <v>54269</v>
       </c>
       <c r="G130" s="4">
@@ -11786,7 +11780,7 @@
       <c r="E131" s="3">
         <v>43466</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="6">
         <v>56975</v>
       </c>
       <c r="G131" s="4">
@@ -11818,7 +11812,7 @@
       <c r="E132" s="3">
         <v>43831</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="6">
         <v>55531</v>
       </c>
       <c r="G132" s="4">
@@ -11850,7 +11844,7 @@
       <c r="E133" s="3">
         <v>44197</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="6">
         <v>58621</v>
       </c>
       <c r="G133" s="4">
@@ -11882,7 +11876,7 @@
       <c r="E134" s="3">
         <v>40544</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="6">
         <v>47399</v>
       </c>
       <c r="G134" s="4">
@@ -11914,7 +11908,7 @@
       <c r="E135" s="3">
         <v>40909</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="6">
         <v>50750</v>
       </c>
       <c r="G135" s="4">
@@ -11946,7 +11940,7 @@
       <c r="E136" s="3">
         <v>41275</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="6">
         <v>52430</v>
       </c>
       <c r="G136" s="4">
@@ -11978,7 +11972,7 @@
       <c r="E137" s="3">
         <v>41640</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="6">
         <v>52273</v>
       </c>
       <c r="G137" s="4">
@@ -12010,7 +12004,7 @@
       <c r="E138" s="3">
         <v>42005</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="6">
         <v>55888</v>
       </c>
       <c r="G138" s="4">
@@ -12042,7 +12036,7 @@
       <c r="E139" s="3">
         <v>42370</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="6">
         <v>56428</v>
       </c>
       <c r="G139" s="4">
@@ -12074,7 +12068,7 @@
       <c r="E140" s="3">
         <v>42736</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="6">
         <v>60205</v>
       </c>
       <c r="G140" s="4">
@@ -12106,7 +12100,7 @@
       <c r="E141" s="3">
         <v>43101</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="6">
         <v>58448</v>
       </c>
       <c r="G141" s="4">
@@ -12138,7 +12132,7 @@
       <c r="E142" s="3">
         <v>43466</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="6">
         <v>65356</v>
       </c>
       <c r="G142" s="4">
@@ -12170,7 +12164,7 @@
       <c r="E143" s="3">
         <v>43831</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="6">
         <v>64567</v>
       </c>
       <c r="G143" s="4">
@@ -12202,7 +12196,7 @@
       <c r="E144" s="3">
         <v>44197</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="6">
         <v>68235</v>
       </c>
       <c r="G144" s="4">
@@ -12234,7 +12228,7 @@
       <c r="E145" s="3">
         <v>40544</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="6">
         <v>40463</v>
       </c>
       <c r="G145" s="4">
@@ -12266,7 +12260,7 @@
       <c r="E146" s="3">
         <v>40909</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="6">
         <v>43844</v>
       </c>
       <c r="G146" s="4">
@@ -12298,7 +12292,7 @@
       <c r="E147" s="3">
         <v>41275</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="6">
         <v>44426</v>
       </c>
       <c r="G147" s="4">
@@ -12330,7 +12324,7 @@
       <c r="E148" s="3">
         <v>41640</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6">
         <v>46481</v>
       </c>
       <c r="G148" s="4">
@@ -12362,7 +12356,7 @@
       <c r="E149" s="3">
         <v>42005</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="6">
         <v>47401</v>
       </c>
       <c r="G149" s="4">
@@ -12394,7 +12388,7 @@
       <c r="E150" s="3">
         <v>42370</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="6">
         <v>49602</v>
       </c>
       <c r="G150" s="4">
@@ -12426,7 +12420,7 @@
       <c r="E151" s="3">
         <v>42736</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="6">
         <v>51708</v>
       </c>
       <c r="G151" s="4">
@@ -12458,7 +12452,7 @@
       <c r="E152" s="3">
         <v>43101</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="6">
         <v>52971</v>
       </c>
       <c r="G152" s="4">
@@ -12490,7 +12484,7 @@
       <c r="E153" s="3">
         <v>43466</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="6">
         <v>57118</v>
       </c>
       <c r="G153" s="4">
@@ -12522,7 +12516,7 @@
       <c r="E154" s="3">
         <v>43831</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="6">
         <v>54902</v>
       </c>
       <c r="G154" s="4">
@@ -12554,7 +12548,7 @@
       <c r="E155" s="3">
         <v>44197</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="6">
         <v>58202</v>
       </c>
       <c r="G155" s="4">
@@ -12586,7 +12580,7 @@
       <c r="E156" s="3">
         <v>40544</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="6">
         <v>39015</v>
       </c>
       <c r="G156" s="4">
@@ -12618,7 +12612,7 @@
       <c r="E157" s="3">
         <v>40909</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="6">
         <v>40854</v>
       </c>
       <c r="G157" s="4">
@@ -12650,7 +12644,7 @@
       <c r="E158" s="3">
         <v>41275</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="6">
         <v>41361</v>
       </c>
       <c r="G158" s="4">
@@ -12682,7 +12676,7 @@
       <c r="E159" s="3">
         <v>41640</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6">
         <v>42370</v>
       </c>
       <c r="G159" s="4">
@@ -12714,7 +12708,7 @@
       <c r="E160" s="3">
         <v>42005</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="6">
         <v>41278</v>
       </c>
       <c r="G160" s="4">
@@ -12746,7 +12740,7 @@
       <c r="E161" s="3">
         <v>42370</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="6">
         <v>44615</v>
       </c>
       <c r="G161" s="4">
@@ -12778,7 +12772,7 @@
       <c r="E162" s="3">
         <v>42736</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="6">
         <v>47225</v>
       </c>
       <c r="G162" s="4">
@@ -12810,7 +12804,7 @@
       <c r="E163" s="3">
         <v>43101</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="6">
         <v>47678</v>
       </c>
       <c r="G163" s="4">
@@ -12842,7 +12836,7 @@
       <c r="E164" s="3">
         <v>43466</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="6">
         <v>49661</v>
       </c>
       <c r="G164" s="4">
@@ -12874,7 +12868,7 @@
       <c r="E165" s="3">
         <v>43831</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="6">
         <v>50813</v>
       </c>
       <c r="G165" s="4">
@@ -12906,7 +12900,7 @@
       <c r="E166" s="3">
         <v>44197</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="6">
         <v>58479</v>
       </c>
       <c r="G166" s="4">
@@ -12938,7 +12932,7 @@
       <c r="E167" s="3">
         <v>40544</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6">
         <v>50177</v>
       </c>
       <c r="G167" s="4">
@@ -12970,7 +12964,7 @@
       <c r="E168" s="3">
         <v>40909</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="6">
         <v>50950</v>
       </c>
       <c r="G168" s="4">
@@ -13002,7 +12996,7 @@
       <c r="E169" s="3">
         <v>41275</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="6">
         <v>51034</v>
       </c>
       <c r="G169" s="4">
@@ -13034,7 +13028,7 @@
       <c r="E170" s="3">
         <v>41640</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="6">
         <v>55178</v>
       </c>
       <c r="G170" s="4">
@@ -13066,7 +13060,7 @@
       <c r="E171" s="3">
         <v>42005</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="6">
         <v>53919</v>
       </c>
       <c r="G171" s="4">
@@ -13098,7 +13092,7 @@
       <c r="E172" s="3">
         <v>42370</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="6">
         <v>61017</v>
       </c>
       <c r="G172" s="4">
@@ -13130,7 +13124,7 @@
       <c r="E173" s="3">
         <v>42736</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="6">
         <v>61350</v>
       </c>
       <c r="G173" s="4">
@@ -13162,7 +13156,7 @@
       <c r="E174" s="3">
         <v>43101</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="6">
         <v>60764</v>
       </c>
       <c r="G174" s="4">
@@ -13194,7 +13188,7 @@
       <c r="E175" s="3">
         <v>43466</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="6">
         <v>63483</v>
       </c>
       <c r="G175" s="4">
@@ -13226,7 +13220,7 @@
       <c r="E176" s="3">
         <v>43831</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="6">
         <v>65359</v>
       </c>
       <c r="G176" s="4">
@@ -13258,7 +13252,7 @@
       <c r="E177" s="3">
         <v>44197</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="6">
         <v>70869</v>
       </c>
       <c r="G177" s="4">
@@ -13290,7 +13284,7 @@
       <c r="E178" s="3">
         <v>40544</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="6">
         <v>69894</v>
       </c>
       <c r="G178" s="4">
@@ -13322,7 +13316,7 @@
       <c r="E179" s="3">
         <v>40909</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="6">
         <v>73012</v>
       </c>
       <c r="G179" s="4">
@@ -13354,7 +13348,7 @@
       <c r="E180" s="3">
         <v>41275</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="6">
         <v>77485</v>
       </c>
       <c r="G180" s="4">
@@ -13386,7 +13380,7 @@
       <c r="E181" s="3">
         <v>41640</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6">
         <v>85070</v>
       </c>
       <c r="G181" s="4">
@@ -13418,7 +13412,7 @@
       <c r="E182" s="3">
         <v>42005</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="6">
         <v>92094</v>
       </c>
       <c r="G182" s="4">
@@ -13450,7 +13444,7 @@
       <c r="E183" s="3">
         <v>42370</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="6">
         <v>103801</v>
       </c>
       <c r="G183" s="4">
@@ -13482,7 +13476,7 @@
       <c r="E184" s="3">
         <v>42736</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="6">
         <v>110816</v>
       </c>
       <c r="G184" s="4">
@@ -13514,7 +13508,7 @@
       <c r="E185" s="3">
         <v>43101</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6">
         <v>112376</v>
       </c>
       <c r="G185" s="4">
@@ -13546,7 +13540,7 @@
       <c r="E186" s="3">
         <v>43466</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="6">
         <v>123859</v>
       </c>
       <c r="G186" s="4">
@@ -13578,7 +13572,7 @@
       <c r="E187" s="3">
         <v>43831</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187" s="6">
         <v>119136</v>
       </c>
       <c r="G187" s="4">
@@ -13610,7 +13604,7 @@
       <c r="E188" s="3">
         <v>44197</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" s="6">
         <v>121826</v>
       </c>
       <c r="G188" s="4">
@@ -13642,7 +13636,7 @@
       <c r="E189" s="3">
         <v>40544</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189" s="6">
         <v>61037</v>
       </c>
       <c r="G189" s="4">
@@ -13674,7 +13668,7 @@
       <c r="E190" s="3">
         <v>40909</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F190" s="6">
         <v>64473</v>
       </c>
       <c r="G190" s="4">
@@ -13706,7 +13700,7 @@
       <c r="E191" s="3">
         <v>41275</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191" s="6">
         <v>70172</v>
       </c>
       <c r="G191" s="4">
@@ -13738,7 +13732,7 @@
       <c r="E192" s="3">
         <v>41640</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" s="6">
         <v>70975</v>
       </c>
       <c r="G192" s="4">
@@ -13770,7 +13764,7 @@
       <c r="E193" s="3">
         <v>42005</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193" s="6">
         <v>80349</v>
       </c>
       <c r="G193" s="4">
@@ -13802,7 +13796,7 @@
       <c r="E194" s="3">
         <v>42370</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F194" s="6">
         <v>83476</v>
       </c>
       <c r="G194" s="4">
@@ -13834,7 +13828,7 @@
       <c r="E195" s="3">
         <v>42736</v>
       </c>
-      <c r="F195" s="7">
+      <c r="F195" s="6">
         <v>86822</v>
       </c>
       <c r="G195" s="4">
@@ -13866,7 +13860,7 @@
       <c r="E196" s="3">
         <v>43101</v>
       </c>
-      <c r="F196" s="7">
+      <c r="F196" s="6">
         <v>93481</v>
       </c>
       <c r="G196" s="4">
@@ -13898,7 +13892,7 @@
       <c r="E197" s="3">
         <v>43466</v>
       </c>
-      <c r="F197" s="7">
+      <c r="F197" s="6">
         <v>102486</v>
       </c>
       <c r="G197" s="4">
@@ -13930,7 +13924,7 @@
       <c r="E198" s="3">
         <v>43831</v>
       </c>
-      <c r="F198" s="7">
+      <c r="F198" s="6">
         <v>97185</v>
       </c>
       <c r="G198" s="4">
@@ -13962,7 +13956,7 @@
       <c r="E199" s="3">
         <v>44197</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="6">
         <v>110781</v>
       </c>
       <c r="G199" s="4">
@@ -13994,7 +13988,7 @@
       <c r="E200" s="3">
         <v>40544</v>
       </c>
-      <c r="F200" s="7">
+      <c r="F200" s="6">
         <v>47371</v>
       </c>
       <c r="G200" s="4">
@@ -14026,7 +14020,7 @@
       <c r="E201" s="3">
         <v>40909</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="6">
         <v>50488</v>
       </c>
       <c r="G201" s="4">
@@ -14058,7 +14052,7 @@
       <c r="E202" s="3">
         <v>41275</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="6">
         <v>51089</v>
       </c>
       <c r="G202" s="4">
@@ -14090,7 +14084,7 @@
       <c r="E203" s="3">
         <v>41640</v>
       </c>
-      <c r="F203" s="7">
+      <c r="F203" s="6">
         <v>54941</v>
       </c>
       <c r="G203" s="4">
@@ -14122,7 +14116,7 @@
       <c r="E204" s="3">
         <v>42005</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="6">
         <v>58003</v>
       </c>
       <c r="G204" s="4">
@@ -14154,7 +14148,7 @@
       <c r="E205" s="3">
         <v>42370</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="6">
         <v>61105</v>
       </c>
       <c r="G205" s="4">
@@ -14186,7 +14180,7 @@
       <c r="E206" s="3">
         <v>42736</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="6">
         <v>65224</v>
       </c>
       <c r="G206" s="4">
@@ -14218,7 +14212,7 @@
       <c r="E207" s="3">
         <v>43101</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="6">
         <v>68377</v>
       </c>
       <c r="G207" s="4">
@@ -14250,7 +14244,7 @@
       <c r="E208" s="3">
         <v>43466</v>
       </c>
-      <c r="F208" s="7">
+      <c r="F208" s="6">
         <v>75646</v>
       </c>
       <c r="G208" s="4">
@@ -14282,7 +14276,7 @@
       <c r="E209" s="3">
         <v>43831</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="6">
         <v>72661</v>
       </c>
       <c r="G209" s="4">
@@ -14314,7 +14308,7 @@
       <c r="E210" s="3">
         <v>44197</v>
       </c>
-      <c r="F210" s="7">
+      <c r="F210" s="6">
         <v>81630</v>
       </c>
       <c r="G210" s="4">
@@ -14346,7 +14340,7 @@
       <c r="E211" s="3">
         <v>40544</v>
       </c>
-      <c r="F211" s="7">
+      <c r="F211" s="6">
         <v>42995</v>
       </c>
       <c r="G211" s="4">
@@ -14378,7 +14372,7 @@
       <c r="E212" s="3">
         <v>40909</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="6">
         <v>43352</v>
       </c>
       <c r="G212" s="4">
@@ -14410,7 +14404,7 @@
       <c r="E213" s="3">
         <v>41275</v>
       </c>
-      <c r="F213" s="7">
+      <c r="F213" s="6">
         <v>46232</v>
       </c>
       <c r="G213" s="4">
@@ -14442,7 +14436,7 @@
       <c r="E214" s="3">
         <v>41640</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F214" s="6">
         <v>49119</v>
       </c>
       <c r="G214" s="4">
@@ -14474,7 +14468,7 @@
       <c r="E215" s="3">
         <v>42005</v>
       </c>
-      <c r="F215" s="7">
+      <c r="F215" s="6">
         <v>50739</v>
       </c>
       <c r="G215" s="4">
@@ -14506,7 +14500,7 @@
       <c r="E216" s="3">
         <v>42370</v>
       </c>
-      <c r="F216" s="7">
+      <c r="F216" s="6">
         <v>52915</v>
       </c>
       <c r="G216" s="4">
@@ -14538,7 +14532,7 @@
       <c r="E217" s="3">
         <v>42736</v>
       </c>
-      <c r="F217" s="7">
+      <c r="F217" s="6">
         <v>52062</v>
       </c>
       <c r="G217" s="4">
@@ -14570,7 +14564,7 @@
       <c r="E218" s="3">
         <v>43101</v>
       </c>
-      <c r="F218" s="7">
+      <c r="F218" s="6">
         <v>53973</v>
       </c>
       <c r="G218" s="4">
@@ -14602,7 +14596,7 @@
       <c r="E219" s="3">
         <v>43466</v>
       </c>
-      <c r="F219" s="7">
+      <c r="F219" s="6">
         <v>55492</v>
       </c>
       <c r="G219" s="4">
@@ -14634,7 +14628,7 @@
       <c r="E220" s="3">
         <v>43831</v>
       </c>
-      <c r="F220" s="7">
+      <c r="F220" s="6">
         <v>56456</v>
       </c>
       <c r="G220" s="4">
@@ -14666,7 +14660,7 @@
       <c r="E221" s="3">
         <v>44197</v>
       </c>
-      <c r="F221" s="7">
+      <c r="F221" s="6">
         <v>59214</v>
       </c>
       <c r="G221" s="4">
@@ -14698,7 +14692,7 @@
       <c r="E222" s="3">
         <v>40544</v>
       </c>
-      <c r="F222" s="7">
+      <c r="F222" s="6">
         <v>40702</v>
       </c>
       <c r="G222" s="4">
@@ -14730,7 +14724,7 @@
       <c r="E223" s="3">
         <v>40909</v>
       </c>
-      <c r="F223" s="7">
+      <c r="F223" s="6">
         <v>40974</v>
       </c>
       <c r="G223" s="4">
@@ -14762,7 +14756,7 @@
       <c r="E224" s="3">
         <v>41275</v>
       </c>
-      <c r="F224" s="7">
+      <c r="F224" s="6">
         <v>41129</v>
       </c>
       <c r="G224" s="4">
@@ -14794,7 +14788,7 @@
       <c r="E225" s="3">
         <v>41640</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" s="6">
         <v>41221</v>
       </c>
       <c r="G225" s="4">
@@ -14826,7 +14820,7 @@
       <c r="E226" s="3">
         <v>42005</v>
       </c>
-      <c r="F226" s="7">
+      <c r="F226" s="6">
         <v>45069</v>
       </c>
       <c r="G226" s="4">
@@ -14858,7 +14852,7 @@
       <c r="E227" s="3">
         <v>42370</v>
       </c>
-      <c r="F227" s="7">
+      <c r="F227" s="6">
         <v>43200</v>
       </c>
       <c r="G227" s="4">
@@ -14890,7 +14884,7 @@
       <c r="E228" s="3">
         <v>42736</v>
       </c>
-      <c r="F228" s="7">
+      <c r="F228" s="6">
         <v>44754</v>
       </c>
       <c r="G228" s="4">
@@ -14922,7 +14916,7 @@
       <c r="E229" s="3">
         <v>43101</v>
       </c>
-      <c r="F229" s="7">
+      <c r="F229" s="6">
         <v>45031</v>
       </c>
       <c r="G229" s="4">
@@ -14954,7 +14948,7 @@
       <c r="E230" s="3">
         <v>43466</v>
       </c>
-      <c r="F230" s="7">
+      <c r="F230" s="6">
         <v>48542</v>
       </c>
       <c r="G230" s="4">
@@ -14986,7 +14980,7 @@
       <c r="E231" s="3">
         <v>43831</v>
       </c>
-      <c r="F231" s="7">
+      <c r="F231" s="6">
         <v>48866</v>
       </c>
       <c r="G231" s="4">
@@ -15018,7 +15012,7 @@
       <c r="E232" s="3">
         <v>44197</v>
       </c>
-      <c r="F232" s="7">
+      <c r="F232" s="6">
         <v>51241</v>
       </c>
       <c r="G232" s="4">
@@ -15050,7 +15044,7 @@
       <c r="E233" s="3">
         <v>40544</v>
       </c>
-      <c r="F233" s="7">
+      <c r="F233" s="6">
         <v>63124</v>
       </c>
       <c r="G233" s="4">
@@ -15082,7 +15076,7 @@
       <c r="E234" s="3">
         <v>40909</v>
       </c>
-      <c r="F234" s="7">
+      <c r="F234" s="6">
         <v>66583</v>
       </c>
       <c r="G234" s="4">
@@ -15114,7 +15108,7 @@
       <c r="E235" s="3">
         <v>41275</v>
       </c>
-      <c r="F235" s="7">
+      <c r="F235" s="6">
         <v>67572</v>
       </c>
       <c r="G235" s="4">
@@ -15146,7 +15140,7 @@
       <c r="E236" s="3">
         <v>41640</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F236" s="6">
         <v>71648</v>
       </c>
       <c r="G236" s="4">
@@ -15178,7 +15172,7 @@
       <c r="E237" s="3">
         <v>42005</v>
       </c>
-      <c r="F237" s="7">
+      <c r="F237" s="6">
         <v>75628</v>
       </c>
       <c r="G237" s="4">
@@ -15210,7 +15204,7 @@
       <c r="E238" s="3">
         <v>42370</v>
       </c>
-      <c r="F238" s="7">
+      <c r="F238" s="6">
         <v>75506</v>
       </c>
       <c r="G238" s="4">
@@ -15242,7 +15236,7 @@
       <c r="E239" s="3">
         <v>42736</v>
       </c>
-      <c r="F239" s="7">
+      <c r="F239" s="6">
         <v>82372</v>
       </c>
       <c r="G239" s="4">
@@ -15274,7 +15268,7 @@
       <c r="E240" s="3">
         <v>43101</v>
       </c>
-      <c r="F240" s="7">
+      <c r="F240" s="6">
         <v>85203</v>
       </c>
       <c r="G240" s="4">
@@ -15306,7 +15300,7 @@
       <c r="E241" s="3">
         <v>43466</v>
       </c>
-      <c r="F241" s="7">
+      <c r="F241" s="6">
         <v>92266</v>
       </c>
       <c r="G241" s="4">
@@ -15338,7 +15332,7 @@
       <c r="E242" s="3">
         <v>43831</v>
       </c>
-      <c r="F242" s="7">
+      <c r="F242" s="6">
         <v>90842</v>
       </c>
       <c r="G242" s="4">
@@ -15370,7 +15364,7 @@
       <c r="E243" s="3">
         <v>44197</v>
       </c>
-      <c r="F243" s="7">
+      <c r="F243" s="6">
         <v>90088</v>
       </c>
       <c r="G243" s="4">
@@ -15402,7 +15396,7 @@
       <c r="E244" s="3">
         <v>40544</v>
       </c>
-      <c r="F244" s="7">
+      <c r="F244" s="6">
         <v>49081</v>
       </c>
       <c r="G244" s="4">
@@ -15434,7 +15428,7 @@
       <c r="E245" s="3">
         <v>40909</v>
       </c>
-      <c r="F245" s="7">
+      <c r="F245" s="6">
         <v>51642</v>
       </c>
       <c r="G245" s="4">
@@ -15466,7 +15460,7 @@
       <c r="E246" s="3">
         <v>41275</v>
       </c>
-      <c r="F246" s="7">
+      <c r="F246" s="6">
         <v>53583</v>
       </c>
       <c r="G246" s="4">
@@ -15498,7 +15492,7 @@
       <c r="E247" s="3">
         <v>41640</v>
       </c>
-      <c r="F247" s="7">
+      <c r="F247" s="6">
         <v>54280</v>
       </c>
       <c r="G247" s="4">
@@ -15510,7 +15504,7 @@
       <c r="I247" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J247" s="8" t="s">
+      <c r="J247" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -15530,7 +15524,7 @@
       <c r="E248" s="3">
         <v>42005</v>
       </c>
-      <c r="F248" s="7">
+      <c r="F248" s="6">
         <v>58263</v>
       </c>
       <c r="G248" s="4">
@@ -15562,7 +15556,7 @@
       <c r="E249" s="3">
         <v>42370</v>
       </c>
-      <c r="F249" s="7">
+      <c r="F249" s="6">
         <v>63621</v>
       </c>
       <c r="G249" s="4">
@@ -15594,7 +15588,7 @@
       <c r="E250" s="3">
         <v>42736</v>
       </c>
-      <c r="F250" s="7">
+      <c r="F250" s="6">
         <v>66758</v>
       </c>
       <c r="G250" s="4">
@@ -15626,7 +15620,7 @@
       <c r="E251" s="3">
         <v>43101</v>
       </c>
-      <c r="F251" s="7">
+      <c r="F251" s="6">
         <v>71834</v>
       </c>
       <c r="G251" s="4">
@@ -15658,7 +15652,7 @@
       <c r="E252" s="3">
         <v>43466</v>
       </c>
-      <c r="F252" s="7">
+      <c r="F252" s="6">
         <v>79018</v>
       </c>
       <c r="G252" s="4">
@@ -15690,7 +15684,7 @@
       <c r="E253" s="3">
         <v>43831</v>
       </c>
-      <c r="F253" s="7">
+      <c r="F253" s="6">
         <v>76298</v>
       </c>
       <c r="G253" s="4">
@@ -15722,7 +15716,7 @@
       <c r="E254" s="3">
         <v>44197</v>
       </c>
-      <c r="F254" s="7">
+      <c r="F254" s="6">
         <v>79283</v>
       </c>
       <c r="G254" s="4">
@@ -15754,7 +15748,7 @@
       <c r="E255" s="3">
         <v>40544</v>
       </c>
-      <c r="F255" s="7">
+      <c r="F255" s="6">
         <v>46995</v>
       </c>
       <c r="G255" s="4">
@@ -15786,7 +15780,7 @@
       <c r="E256" s="3">
         <v>40909</v>
       </c>
-      <c r="F256" s="7">
+      <c r="F256" s="6">
         <v>47415</v>
       </c>
       <c r="G256" s="4">
@@ -15818,7 +15812,7 @@
       <c r="E257" s="3">
         <v>41275</v>
       </c>
-      <c r="F257" s="7">
+      <c r="F257" s="6">
         <v>49289</v>
       </c>
       <c r="G257" s="4">
@@ -15850,7 +15844,7 @@
       <c r="E258" s="3">
         <v>41640</v>
       </c>
-      <c r="F258" s="7">
+      <c r="F258" s="6">
         <v>50291</v>
       </c>
       <c r="G258" s="4">
@@ -15882,7 +15876,7 @@
       <c r="E259" s="3">
         <v>42005</v>
       </c>
-      <c r="F259" s="7">
+      <c r="F259" s="6">
         <v>49676</v>
       </c>
       <c r="G259" s="4">
@@ -15914,7 +15908,7 @@
       <c r="E260" s="3">
         <v>42370</v>
       </c>
-      <c r="F260" s="7">
+      <c r="F260" s="6">
         <v>51115</v>
       </c>
       <c r="G260" s="4">
@@ -15946,7 +15940,7 @@
       <c r="E261" s="3">
         <v>42736</v>
       </c>
-      <c r="F261" s="7">
+      <c r="F261" s="6">
         <v>56699</v>
       </c>
       <c r="G261" s="4">
@@ -15978,7 +15972,7 @@
       <c r="E262" s="3">
         <v>43101</v>
       </c>
-      <c r="F262" s="7">
+      <c r="F262" s="6">
         <v>53575</v>
       </c>
       <c r="G262" s="4">
@@ -16010,7 +16004,7 @@
       <c r="E263" s="3">
         <v>43466</v>
       </c>
-      <c r="F263" s="7">
+      <c r="F263" s="6">
         <v>58713</v>
       </c>
       <c r="G263" s="4">
@@ -16042,7 +16036,7 @@
       <c r="E264" s="3">
         <v>43831</v>
       </c>
-      <c r="F264" s="7">
+      <c r="F264" s="6">
         <v>58377</v>
       </c>
       <c r="G264" s="4">
@@ -16074,7 +16068,7 @@
       <c r="E265" s="3">
         <v>44197</v>
       </c>
-      <c r="F265" s="7">
+      <c r="F265" s="6">
         <v>59746</v>
       </c>
       <c r="G265" s="4">
@@ -16106,7 +16100,7 @@
       <c r="E266" s="3">
         <v>40544</v>
       </c>
-      <c r="F266" s="7">
+      <c r="F266" s="6">
         <v>47033</v>
       </c>
       <c r="G266" s="4">
@@ -16138,7 +16132,7 @@
       <c r="E267" s="3">
         <v>40909</v>
       </c>
-      <c r="F267" s="7">
+      <c r="F267" s="6">
         <v>52158</v>
       </c>
       <c r="G267" s="4">
@@ -16170,7 +16164,7 @@
       <c r="E268" s="3">
         <v>41275</v>
       </c>
-      <c r="F268" s="7">
+      <c r="F268" s="6">
         <v>55571</v>
       </c>
       <c r="G268" s="4">
@@ -16202,7 +16196,7 @@
       <c r="E269" s="3">
         <v>41640</v>
       </c>
-      <c r="F269" s="7">
+      <c r="F269" s="6">
         <v>54624</v>
       </c>
       <c r="G269" s="4">
@@ -16234,7 +16228,7 @@
       <c r="E270" s="3">
         <v>42005</v>
       </c>
-      <c r="F270" s="7">
+      <c r="F270" s="6">
         <v>60892</v>
       </c>
       <c r="G270" s="4">
@@ -16266,7 +16260,7 @@
       <c r="E271" s="3">
         <v>42370</v>
       </c>
-      <c r="F271" s="7">
+      <c r="F271" s="6">
         <v>62127</v>
       </c>
       <c r="G271" s="4">
@@ -16298,7 +16292,7 @@
       <c r="E272" s="3">
         <v>42736</v>
       </c>
-      <c r="F272" s="7">
+      <c r="F272" s="6">
         <v>66187</v>
       </c>
       <c r="G272" s="4">
@@ -16330,7 +16324,7 @@
       <c r="E273" s="3">
         <v>43101</v>
       </c>
-      <c r="F273" s="7">
+      <c r="F273" s="6">
         <v>73097</v>
       </c>
       <c r="G273" s="4">
@@ -16362,7 +16356,7 @@
       <c r="E274" s="3">
         <v>43466</v>
       </c>
-      <c r="F274" s="7">
+      <c r="F274" s="6">
         <v>76231</v>
       </c>
       <c r="G274" s="4">
@@ -16394,7 +16388,7 @@
       <c r="E275" s="3">
         <v>43831</v>
       </c>
-      <c r="F275" s="7">
+      <c r="F275" s="6">
         <v>73159</v>
       </c>
       <c r="G275" s="4">
@@ -16426,7 +16420,7 @@
       <c r="E276" s="3">
         <v>44197</v>
       </c>
-      <c r="F276" s="7">
+      <c r="F276" s="6">
         <v>79057</v>
       </c>
       <c r="G276" s="4">
@@ -16458,7 +16452,7 @@
       <c r="E277" s="3">
         <v>40544</v>
       </c>
-      <c r="F277" s="7">
+      <c r="F277" s="6">
         <v>25193</v>
       </c>
       <c r="G277" s="4">
@@ -16490,7 +16484,7 @@
       <c r="E278" s="3">
         <v>40909</v>
       </c>
-      <c r="F278" s="7">
+      <c r="F278" s="6">
         <v>23600</v>
       </c>
       <c r="G278" s="4">
@@ -16522,7 +16516,7 @@
       <c r="E279" s="3">
         <v>41275</v>
       </c>
-      <c r="F279" s="7">
+      <c r="F279" s="6">
         <v>24820</v>
       </c>
       <c r="G279" s="4">
@@ -16554,7 +16548,7 @@
       <c r="E280" s="3">
         <v>41640</v>
       </c>
-      <c r="F280" s="7">
+      <c r="F280" s="6">
         <v>25769</v>
       </c>
       <c r="G280" s="4">
@@ -16586,7 +16580,7 @@
       <c r="E281" s="3">
         <v>42005</v>
       </c>
-      <c r="F281" s="7">
+      <c r="F281" s="6">
         <v>25980</v>
       </c>
       <c r="G281" s="4">
@@ -16618,7 +16612,7 @@
       <c r="E282" s="3">
         <v>42370</v>
       </c>
-      <c r="F282" s="7">
+      <c r="F282" s="6">
         <v>28099</v>
       </c>
       <c r="G282" s="4">
@@ -16650,7 +16644,7 @@
       <c r="E283" s="3">
         <v>42736</v>
       </c>
-      <c r="F283" s="7">
+      <c r="F283" s="6">
         <v>30344</v>
       </c>
       <c r="G283" s="4">
@@ -16682,7 +16676,7 @@
       <c r="E284" s="3">
         <v>43101</v>
       </c>
-      <c r="F284" s="7">
+      <c r="F284" s="6">
         <v>31283</v>
       </c>
       <c r="G284" s="4">
@@ -16714,7 +16708,7 @@
       <c r="E285" s="3">
         <v>43466</v>
       </c>
-      <c r="F285" s="7">
+      <c r="F285" s="6">
         <v>33965</v>
       </c>
       <c r="G285" s="4">
@@ -16746,7 +16740,7 @@
       <c r="E286" s="3">
         <v>43831</v>
       </c>
-      <c r="F286" s="7">
+      <c r="F286" s="6">
         <v>32498</v>
       </c>
       <c r="G286" s="4">
@@ -16778,7 +16772,7 @@
       <c r="E287" s="3">
         <v>44197</v>
       </c>
-      <c r="F287" s="7">
+      <c r="F287" s="6">
         <v>36140</v>
       </c>
       <c r="G287" s="4">
@@ -16810,7 +16804,7 @@
       <c r="E288" s="3">
         <v>40544</v>
       </c>
-      <c r="F288" s="7">
+      <c r="F288" s="6">
         <v>34960</v>
       </c>
       <c r="G288" s="4">
@@ -16842,7 +16836,7 @@
       <c r="E289" s="3">
         <v>40909</v>
       </c>
-      <c r="F289" s="7">
+      <c r="F289" s="6">
         <v>33563</v>
       </c>
       <c r="G289" s="4">
@@ -16874,7 +16868,7 @@
       <c r="E290" s="3">
         <v>41275</v>
       </c>
-      <c r="F290" s="7">
+      <c r="F290" s="6">
         <v>36722</v>
       </c>
       <c r="G290" s="4">
@@ -16906,7 +16900,7 @@
       <c r="E291" s="3">
         <v>41640</v>
       </c>
-      <c r="F291" s="7">
+      <c r="F291" s="6">
         <v>34704</v>
       </c>
       <c r="G291" s="4">
@@ -16938,7 +16932,7 @@
       <c r="E292" s="3">
         <v>42005</v>
       </c>
-      <c r="F292" s="7">
+      <c r="F292" s="6">
         <v>36908</v>
       </c>
       <c r="G292" s="4">
@@ -16970,7 +16964,7 @@
       <c r="E293" s="3">
         <v>42370</v>
       </c>
-      <c r="F293" s="7">
+      <c r="F293" s="6">
         <v>38826</v>
       </c>
       <c r="G293" s="4">
@@ -17002,7 +16996,7 @@
       <c r="E294" s="3">
         <v>42736</v>
       </c>
-      <c r="F294" s="7">
+      <c r="F294" s="6">
         <v>39333</v>
       </c>
       <c r="G294" s="4">
@@ -17034,7 +17028,7 @@
       <c r="E295" s="3">
         <v>43101</v>
       </c>
-      <c r="F295" s="7">
+      <c r="F295" s="6">
         <v>37199</v>
       </c>
       <c r="G295" s="4">
@@ -17066,7 +17060,7 @@
       <c r="E296" s="3">
         <v>43466</v>
       </c>
-      <c r="F296" s="7">
+      <c r="F296" s="6">
         <v>43794</v>
       </c>
       <c r="G296" s="4">
@@ -17098,7 +17092,7 @@
       <c r="E297" s="3">
         <v>43831</v>
       </c>
-      <c r="F297" s="7">
+      <c r="F297" s="6">
         <v>41864</v>
       </c>
       <c r="G297" s="4">
@@ -17130,7 +17124,7 @@
       <c r="E298" s="3">
         <v>44197</v>
       </c>
-      <c r="F298" s="7">
+      <c r="F298" s="6">
         <v>44317</v>
       </c>
       <c r="G298" s="4">
@@ -17162,7 +17156,7 @@
       <c r="E299" s="3">
         <v>40544</v>
       </c>
-      <c r="F299" s="7">
+      <c r="F299" s="6">
         <v>38721</v>
       </c>
       <c r="G299" s="4">
@@ -17194,7 +17188,7 @@
       <c r="E300" s="3">
         <v>40909</v>
       </c>
-      <c r="F300" s="7">
+      <c r="F300" s="6">
         <v>39241</v>
       </c>
       <c r="G300" s="4">
@@ -17226,7 +17220,7 @@
       <c r="E301" s="3">
         <v>41275</v>
       </c>
-      <c r="F301" s="7">
+      <c r="F301" s="6">
         <v>42266</v>
       </c>
       <c r="G301" s="4">
@@ -17258,7 +17252,7 @@
       <c r="E302" s="3">
         <v>41640</v>
       </c>
-      <c r="F302" s="7">
+      <c r="F302" s="6">
         <v>41895</v>
       </c>
       <c r="G302" s="4">
@@ -17270,7 +17264,7 @@
       <c r="I302" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J302" s="8" t="s">
+      <c r="J302" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -17290,7 +17284,7 @@
       <c r="E303" s="3">
         <v>42005</v>
       </c>
-      <c r="F303" s="7">
+      <c r="F303" s="6">
         <v>44165</v>
       </c>
       <c r="G303" s="4">
@@ -17322,7 +17316,7 @@
       <c r="E304" s="3">
         <v>42370</v>
       </c>
-      <c r="F304" s="7">
+      <c r="F304" s="6">
         <v>47350</v>
       </c>
       <c r="G304" s="4">
@@ -17354,7 +17348,7 @@
       <c r="E305" s="3">
         <v>42736</v>
       </c>
-      <c r="F305" s="7">
+      <c r="F305" s="6">
         <v>47131</v>
       </c>
       <c r="G305" s="4">
@@ -17386,7 +17380,7 @@
       <c r="E306" s="3">
         <v>43101</v>
       </c>
-      <c r="F306" s="7">
+      <c r="F306" s="6">
         <v>51000</v>
       </c>
       <c r="G306" s="4">
@@ -17418,7 +17412,7 @@
       <c r="E307" s="3">
         <v>43466</v>
       </c>
-      <c r="F307" s="7">
+      <c r="F307" s="6">
         <v>50177</v>
       </c>
       <c r="G307" s="4">
@@ -17450,7 +17444,7 @@
       <c r="E308" s="3">
         <v>43831</v>
       </c>
-      <c r="F308" s="7">
+      <c r="F308" s="6">
         <v>52164</v>
       </c>
       <c r="G308" s="4">
@@ -17482,7 +17476,7 @@
       <c r="E309" s="3">
         <v>44197</v>
       </c>
-      <c r="F309" s="7">
+      <c r="F309" s="6">
         <v>54652</v>
       </c>
       <c r="G309" s="4">
@@ -17514,7 +17508,7 @@
       <c r="E310" s="3">
         <v>40544</v>
       </c>
-      <c r="F310" s="7">
+      <c r="F310" s="6">
         <v>33122</v>
       </c>
       <c r="G310" s="4">
@@ -17546,7 +17540,7 @@
       <c r="E311" s="3">
         <v>40909</v>
       </c>
-      <c r="F311" s="7">
+      <c r="F311" s="6">
         <v>34042</v>
       </c>
       <c r="G311" s="4">
@@ -17578,7 +17572,7 @@
       <c r="E312" s="3">
         <v>41275</v>
       </c>
-      <c r="F312" s="7">
+      <c r="F312" s="6">
         <v>35186</v>
       </c>
       <c r="G312" s="4">
@@ -17610,7 +17604,7 @@
       <c r="E313" s="3">
         <v>41640</v>
       </c>
-      <c r="F313" s="7">
+      <c r="F313" s="6">
         <v>35049</v>
       </c>
       <c r="G313" s="4">
@@ -17642,7 +17636,7 @@
       <c r="E314" s="3">
         <v>42005</v>
       </c>
-      <c r="F314" s="7">
+      <c r="F314" s="6">
         <v>37495</v>
       </c>
       <c r="G314" s="4">
@@ -17674,7 +17668,7 @@
       <c r="E315" s="3">
         <v>42370</v>
       </c>
-      <c r="F315" s="7">
+      <c r="F315" s="6">
         <v>38097</v>
       </c>
       <c r="G315" s="4">
@@ -17706,7 +17700,7 @@
       <c r="E316" s="3">
         <v>42736</v>
       </c>
-      <c r="F316" s="7">
+      <c r="F316" s="6">
         <v>39098</v>
       </c>
       <c r="G316" s="4">
@@ -17738,7 +17732,7 @@
       <c r="E317" s="3">
         <v>43101</v>
       </c>
-      <c r="F317" s="7">
+      <c r="F317" s="6">
         <v>42087</v>
       </c>
       <c r="G317" s="4">
@@ -17770,7 +17764,7 @@
       <c r="E318" s="3">
         <v>43466</v>
       </c>
-      <c r="F318" s="7">
+      <c r="F318" s="6">
         <v>44192</v>
       </c>
       <c r="G318" s="4">
@@ -17802,7 +17796,7 @@
       <c r="E319" s="3">
         <v>43831</v>
       </c>
-      <c r="F319" s="7">
+      <c r="F319" s="6">
         <v>43125</v>
       </c>
       <c r="G319" s="4">
@@ -17834,7 +17828,7 @@
       <c r="E320" s="3">
         <v>44197</v>
       </c>
-      <c r="F320" s="7">
+      <c r="F320" s="6">
         <v>46637</v>
       </c>
       <c r="G320" s="4">
@@ -17866,7 +17860,7 @@
       <c r="E321" s="3">
         <v>40544</v>
       </c>
-      <c r="F321" s="7">
+      <c r="F321" s="6">
         <v>43606</v>
       </c>
       <c r="G321" s="4">
@@ -17898,7 +17892,7 @@
       <c r="E322" s="3">
         <v>40909</v>
       </c>
-      <c r="F322" s="7">
+      <c r="F322" s="6">
         <v>45373</v>
       </c>
       <c r="G322" s="4">
@@ -17930,7 +17924,7 @@
       <c r="E323" s="3">
         <v>41275</v>
       </c>
-      <c r="F323" s="7">
+      <c r="F323" s="6">
         <v>48357</v>
       </c>
       <c r="G323" s="4">
@@ -17962,7 +17956,7 @@
       <c r="E324" s="3">
         <v>41640</v>
       </c>
-      <c r="F324" s="7">
+      <c r="F324" s="6">
         <v>46433</v>
       </c>
       <c r="G324" s="4">
@@ -17994,7 +17988,7 @@
       <c r="E325" s="3">
         <v>42005</v>
       </c>
-      <c r="F325" s="7">
+      <c r="F325" s="6">
         <v>47096</v>
       </c>
       <c r="G325" s="4">
@@ -18026,7 +18020,7 @@
       <c r="E326" s="3">
         <v>42370</v>
       </c>
-      <c r="F326" s="7">
+      <c r="F326" s="6">
         <v>50522</v>
       </c>
       <c r="G326" s="4">
@@ -18058,7 +18052,7 @@
       <c r="E327" s="3">
         <v>42736</v>
       </c>
-      <c r="F327" s="7">
+      <c r="F327" s="6">
         <v>50456</v>
       </c>
       <c r="G327" s="4">
@@ -18090,7 +18084,7 @@
       <c r="E328" s="3">
         <v>43101</v>
       </c>
-      <c r="F328" s="7">
+      <c r="F328" s="6">
         <v>51099</v>
       </c>
       <c r="G328" s="4">
@@ -18122,7 +18116,7 @@
       <c r="E329" s="3">
         <v>43466</v>
       </c>
-      <c r="F329" s="7">
+      <c r="F329" s="6">
         <v>55567</v>
       </c>
       <c r="G329" s="4">
@@ -18154,7 +18148,7 @@
       <c r="E330" s="3">
         <v>43831</v>
       </c>
-      <c r="F330" s="7">
+      <c r="F330" s="6">
         <v>53936</v>
       </c>
       <c r="G330" s="4">
@@ -18186,7 +18180,7 @@
       <c r="E331" s="3">
         <v>44197</v>
       </c>
-      <c r="F331" s="7">
+      <c r="F331" s="6">
         <v>58512</v>
       </c>
       <c r="G331" s="4">
@@ -18218,7 +18212,7 @@
       <c r="E332" s="3">
         <v>40544</v>
       </c>
-      <c r="F332" s="7">
+      <c r="F332" s="6">
         <v>40533</v>
       </c>
       <c r="G332" s="4">
@@ -18250,7 +18244,7 @@
       <c r="E333" s="3">
         <v>40909</v>
       </c>
-      <c r="F333" s="7">
+      <c r="F333" s="6">
         <v>38386</v>
       </c>
       <c r="G333" s="4">
@@ -18282,7 +18276,7 @@
       <c r="E334" s="3">
         <v>41275</v>
       </c>
-      <c r="F334" s="7">
+      <c r="F334" s="6">
         <v>40179</v>
       </c>
       <c r="G334" s="4">
@@ -18314,7 +18308,7 @@
       <c r="E335" s="3">
         <v>41640</v>
       </c>
-      <c r="F335" s="7">
+      <c r="F335" s="6">
         <v>39880</v>
       </c>
       <c r="G335" s="4">
@@ -18346,7 +18340,7 @@
       <c r="E336" s="3">
         <v>42005</v>
       </c>
-      <c r="F336" s="7">
+      <c r="F336" s="6">
         <v>43494</v>
       </c>
       <c r="G336" s="4">
@@ -18378,7 +18372,7 @@
       <c r="E337" s="3">
         <v>42370</v>
       </c>
-      <c r="F337" s="7">
+      <c r="F337" s="6">
         <v>44905</v>
       </c>
       <c r="G337" s="4">
@@ -18410,7 +18404,7 @@
       <c r="E338" s="3">
         <v>42736</v>
       </c>
-      <c r="F338" s="7">
+      <c r="F338" s="6">
         <v>48600</v>
       </c>
       <c r="G338" s="4">
@@ -18442,7 +18436,7 @@
       <c r="E339" s="3">
         <v>43101</v>
       </c>
-      <c r="F339" s="7">
+      <c r="F339" s="6">
         <v>49813</v>
       </c>
       <c r="G339" s="4">
@@ -18474,7 +18468,7 @@
       <c r="E340" s="3">
         <v>43466</v>
       </c>
-      <c r="F340" s="7">
+      <c r="F340" s="6">
         <v>53161</v>
       </c>
       <c r="G340" s="4">
@@ -18506,7 +18500,7 @@
       <c r="E341" s="3">
         <v>43831</v>
       </c>
-      <c r="F341" s="7">
+      <c r="F341" s="6">
         <v>53368</v>
       </c>
       <c r="G341" s="4">
@@ -18538,7 +18532,7 @@
       <c r="E342" s="3">
         <v>44197</v>
       </c>
-      <c r="F342" s="7">
+      <c r="F342" s="6">
         <v>61250</v>
       </c>
       <c r="G342" s="4">
@@ -18570,7 +18564,7 @@
       <c r="E343" s="3">
         <v>40544</v>
       </c>
-      <c r="F343" s="7">
+      <c r="F343" s="6">
         <v>35362</v>
       </c>
       <c r="G343" s="4">
@@ -18602,7 +18596,7 @@
       <c r="E344" s="3">
         <v>40909</v>
       </c>
-      <c r="F344" s="7">
+      <c r="F344" s="6">
         <v>35354</v>
       </c>
       <c r="G344" s="4">
@@ -18634,7 +18628,7 @@
       <c r="E345" s="3">
         <v>41275</v>
       </c>
-      <c r="F345" s="7">
+      <c r="F345" s="6">
         <v>35720</v>
       </c>
       <c r="G345" s="4">
@@ -18666,7 +18660,7 @@
       <c r="E346" s="3">
         <v>41640</v>
       </c>
-      <c r="F346" s="7">
+      <c r="F346" s="6">
         <v>36541</v>
       </c>
       <c r="G346" s="4">
@@ -18698,7 +18692,7 @@
       <c r="E347" s="3">
         <v>42005</v>
       </c>
-      <c r="F347" s="7">
+      <c r="F347" s="6">
         <v>38155</v>
       </c>
       <c r="G347" s="4">
@@ -18730,7 +18724,7 @@
       <c r="E348" s="3">
         <v>42370</v>
       </c>
-      <c r="F348" s="7">
+      <c r="F348" s="6">
         <v>40021</v>
       </c>
       <c r="G348" s="4">
@@ -18762,7 +18756,7 @@
       <c r="E349" s="3">
         <v>42736</v>
       </c>
-      <c r="F349" s="7">
+      <c r="F349" s="6">
         <v>41613</v>
       </c>
       <c r="G349" s="4">
@@ -18794,7 +18788,7 @@
       <c r="E350" s="3">
         <v>43101</v>
       </c>
-      <c r="F350" s="7">
+      <c r="F350" s="6">
         <v>43676</v>
       </c>
       <c r="G350" s="4">
@@ -18826,7 +18820,7 @@
       <c r="E351" s="3">
         <v>43466</v>
       </c>
-      <c r="F351" s="7">
+      <c r="F351" s="6">
         <v>44365</v>
       </c>
       <c r="G351" s="4">
@@ -18858,7 +18852,7 @@
       <c r="E352" s="3">
         <v>43831</v>
       </c>
-      <c r="F352" s="7">
+      <c r="F352" s="6">
         <v>45227</v>
       </c>
       <c r="G352" s="4">
@@ -18890,7 +18884,7 @@
       <c r="E353" s="3">
         <v>44197</v>
       </c>
-      <c r="F353" s="7">
+      <c r="F353" s="6">
         <v>50306</v>
       </c>
       <c r="G353" s="4">
@@ -18922,7 +18916,7 @@
       <c r="E354" s="3">
         <v>40544</v>
       </c>
-      <c r="F354" s="7">
+      <c r="F354" s="6">
         <v>47908</v>
       </c>
       <c r="G354" s="4">
@@ -18954,7 +18948,7 @@
       <c r="E355" s="3">
         <v>40909</v>
       </c>
-      <c r="F355" s="7">
+      <c r="F355" s="6">
         <v>48546</v>
       </c>
       <c r="G355" s="4">
@@ -18986,7 +18980,7 @@
       <c r="E356" s="3">
         <v>41275</v>
       </c>
-      <c r="F356" s="7">
+      <c r="F356" s="6">
         <v>48034</v>
       </c>
       <c r="G356" s="4">
@@ -19018,7 +19012,7 @@
       <c r="E357" s="3">
         <v>41640</v>
       </c>
-      <c r="F357" s="7">
+      <c r="F357" s="6">
         <v>55803</v>
       </c>
       <c r="G357" s="4">
@@ -19030,7 +19024,7 @@
       <c r="I357" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J357" s="8" t="s">
+      <c r="J357" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -19050,7 +19044,7 @@
       <c r="E358" s="3">
         <v>42005</v>
       </c>
-      <c r="F358" s="7">
+      <c r="F358" s="6">
         <v>52151</v>
       </c>
       <c r="G358" s="4">
@@ -19082,7 +19076,7 @@
       <c r="E359" s="3">
         <v>42370</v>
       </c>
-      <c r="F359" s="7">
+      <c r="F359" s="6">
         <v>55187</v>
       </c>
       <c r="G359" s="4">
@@ -19114,7 +19108,7 @@
       <c r="E360" s="3">
         <v>42736</v>
       </c>
-      <c r="F360" s="7">
+      <c r="F360" s="6">
         <v>56943</v>
       </c>
       <c r="G360" s="4">
@@ -19146,7 +19140,7 @@
       <c r="E361" s="3">
         <v>43101</v>
       </c>
-      <c r="F361" s="7">
+      <c r="F361" s="6">
         <v>65046</v>
       </c>
       <c r="G361" s="4">
@@ -19178,7 +19172,7 @@
       <c r="E362" s="3">
         <v>43466</v>
       </c>
-      <c r="F362" s="7">
+      <c r="F362" s="6">
         <v>69134</v>
       </c>
       <c r="G362" s="4">
@@ -19210,7 +19204,7 @@
       <c r="E363" s="3">
         <v>43831</v>
       </c>
-      <c r="F363" s="7">
+      <c r="F363" s="6">
         <v>65847</v>
       </c>
       <c r="G363" s="4">
@@ -19242,7 +19236,7 @@
       <c r="E364" s="3">
         <v>44197</v>
       </c>
-      <c r="F364" s="7">
+      <c r="F364" s="6">
         <v>75311</v>
       </c>
       <c r="G364" s="4">
@@ -19274,7 +19268,7 @@
       <c r="E365" s="3">
         <v>40544</v>
       </c>
-      <c r="F365" s="7">
+      <c r="F365" s="6">
         <v>44527</v>
       </c>
       <c r="G365" s="4">
@@ -19306,7 +19300,7 @@
       <c r="E366" s="3">
         <v>40909</v>
       </c>
-      <c r="F366" s="7">
+      <c r="F366" s="6">
         <v>47256</v>
       </c>
       <c r="G366" s="4">
@@ -19338,7 +19332,7 @@
       <c r="E367" s="3">
         <v>41275</v>
       </c>
-      <c r="F367" s="7">
+      <c r="F367" s="6">
         <v>47561</v>
       </c>
       <c r="G367" s="4">
@@ -19370,7 +19364,7 @@
       <c r="E368" s="3">
         <v>41640</v>
       </c>
-      <c r="F368" s="7">
+      <c r="F368" s="6">
         <v>47675</v>
       </c>
       <c r="G368" s="4">
@@ -19402,7 +19396,7 @@
       <c r="E369" s="3">
         <v>42005</v>
       </c>
-      <c r="F369" s="7">
+      <c r="F369" s="6">
         <v>49177</v>
       </c>
       <c r="G369" s="4">
@@ -19434,7 +19428,7 @@
       <c r="E370" s="3">
         <v>42370</v>
       </c>
-      <c r="F370" s="7">
+      <c r="F370" s="6">
         <v>52393</v>
       </c>
       <c r="G370" s="4">
@@ -19466,7 +19460,7 @@
       <c r="E371" s="3">
         <v>42736</v>
       </c>
-      <c r="F371" s="7">
+      <c r="F371" s="6">
         <v>55014</v>
       </c>
       <c r="G371" s="4">
@@ -19498,7 +19492,7 @@
       <c r="E372" s="3">
         <v>43101</v>
       </c>
-      <c r="F372" s="7">
+      <c r="F372" s="6">
         <v>58247</v>
       </c>
       <c r="G372" s="4">
@@ -19530,7 +19524,7 @@
       <c r="E373" s="3">
         <v>43466</v>
       </c>
-      <c r="F373" s="7">
+      <c r="F373" s="6">
         <v>63836</v>
       </c>
       <c r="G373" s="4">
@@ -19562,7 +19556,7 @@
       <c r="E374" s="3">
         <v>43831</v>
       </c>
-      <c r="F374" s="7">
+      <c r="F374" s="6">
         <v>61640</v>
       </c>
       <c r="G374" s="4">
@@ -19594,7 +19588,7 @@
       <c r="E375" s="3">
         <v>44197</v>
       </c>
-      <c r="F375" s="7">
+      <c r="F375" s="6">
         <v>69266</v>
       </c>
       <c r="G375" s="4">
@@ -19626,7 +19620,7 @@
       <c r="E376" s="3">
         <v>40544</v>
       </c>
-      <c r="F376" s="7">
+      <c r="F376" s="6">
         <v>43810</v>
       </c>
       <c r="G376" s="4">
@@ -19658,7 +19652,7 @@
       <c r="E377" s="3">
         <v>40909</v>
       </c>
-      <c r="F377" s="7">
+      <c r="F377" s="6">
         <v>41877</v>
       </c>
       <c r="G377" s="4">
@@ -19690,7 +19684,7 @@
       <c r="E378" s="3">
         <v>41275</v>
       </c>
-      <c r="F378" s="7">
+      <c r="F378" s="6">
         <v>45551</v>
       </c>
       <c r="G378" s="4">
@@ -19722,7 +19716,7 @@
       <c r="E379" s="3">
         <v>41640</v>
       </c>
-      <c r="F379" s="7">
+      <c r="F379" s="6">
         <v>44173</v>
       </c>
       <c r="G379" s="4">
@@ -19754,7 +19748,7 @@
       <c r="E380" s="3">
         <v>42005</v>
       </c>
-      <c r="F380" s="7">
+      <c r="F380" s="6">
         <v>50259</v>
       </c>
       <c r="G380" s="4">
@@ -19786,7 +19780,7 @@
       <c r="E381" s="3">
         <v>42370</v>
       </c>
-      <c r="F381" s="7">
+      <c r="F381" s="6">
         <v>51235</v>
       </c>
       <c r="G381" s="4">
@@ -19818,7 +19812,7 @@
       <c r="E382" s="3">
         <v>42736</v>
       </c>
-      <c r="F382" s="7">
+      <c r="F382" s="6">
         <v>51330</v>
       </c>
       <c r="G382" s="4">
@@ -19850,7 +19844,7 @@
       <c r="E383" s="3">
         <v>43101</v>
       </c>
-      <c r="F383" s="7">
+      <c r="F383" s="6">
         <v>54372</v>
       </c>
       <c r="G383" s="4">
@@ -19882,7 +19876,7 @@
       <c r="E384" s="3">
         <v>43466</v>
       </c>
-      <c r="F384" s="7">
+      <c r="F384" s="6">
         <v>55259</v>
       </c>
       <c r="G384" s="4">
@@ -19914,7 +19908,7 @@
       <c r="E385" s="3">
         <v>43831</v>
       </c>
-      <c r="F385" s="7">
+      <c r="F385" s="6">
         <v>56179</v>
       </c>
       <c r="G385" s="4">
@@ -19946,7 +19940,7 @@
       <c r="E386" s="3">
         <v>44197</v>
       </c>
-      <c r="F386" s="7">
+      <c r="F386" s="6">
         <v>63396</v>
       </c>
       <c r="G386" s="4">
@@ -19978,7 +19972,7 @@
       <c r="E387" s="3">
         <v>40544</v>
       </c>
-      <c r="F387" s="7">
+      <c r="F387" s="6">
         <v>43903</v>
       </c>
       <c r="G387" s="4">
@@ -20010,7 +20004,7 @@
       <c r="E388" s="3">
         <v>40909</v>
       </c>
-      <c r="F388" s="7">
+      <c r="F388" s="6">
         <v>46466</v>
       </c>
       <c r="G388" s="4">
@@ -20042,7 +20036,7 @@
       <c r="E389" s="3">
         <v>41275</v>
       </c>
-      <c r="F389" s="7">
+      <c r="F389" s="6">
         <v>46485</v>
       </c>
       <c r="G389" s="4">
@@ -20074,7 +20068,7 @@
       <c r="E390" s="3">
         <v>41640</v>
       </c>
-      <c r="F390" s="7">
+      <c r="F390" s="6">
         <v>46777</v>
       </c>
       <c r="G390" s="4">
@@ -20106,7 +20100,7 @@
       <c r="E391" s="3">
         <v>42005</v>
       </c>
-      <c r="F391" s="7">
+      <c r="F391" s="6">
         <v>50210</v>
       </c>
       <c r="G391" s="4">
@@ -20138,7 +20132,7 @@
       <c r="E392" s="3">
         <v>42370</v>
       </c>
-      <c r="F392" s="7">
+      <c r="F392" s="6">
         <v>53843</v>
       </c>
       <c r="G392" s="4">
@@ -20170,7 +20164,7 @@
       <c r="E393" s="3">
         <v>42736</v>
       </c>
-      <c r="F393" s="7">
+      <c r="F393" s="6">
         <v>57597</v>
       </c>
       <c r="G393" s="4">
@@ -20202,7 +20196,7 @@
       <c r="E394" s="3">
         <v>43101</v>
       </c>
-      <c r="F394" s="7">
+      <c r="F394" s="6">
         <v>65345</v>
       </c>
       <c r="G394" s="4">
@@ -20234,7 +20228,7 @@
       <c r="E395" s="3">
         <v>43466</v>
       </c>
-      <c r="F395" s="7">
+      <c r="F395" s="6">
         <v>66657</v>
       </c>
       <c r="G395" s="4">
@@ -20266,7 +20260,7 @@
       <c r="E396" s="3">
         <v>43831</v>
       </c>
-      <c r="F396" s="7">
+      <c r="F396" s="6">
         <v>64179</v>
       </c>
       <c r="G396" s="4">
@@ -20298,7 +20292,7 @@
       <c r="E397" s="3">
         <v>44197</v>
       </c>
-      <c r="F397" s="7">
+      <c r="F397" s="6">
         <v>74107</v>
       </c>
       <c r="G397" s="4">
@@ -20330,7 +20324,7 @@
       <c r="E398" s="3">
         <v>40544</v>
       </c>
-      <c r="F398" s="7">
+      <c r="F398" s="6">
         <v>45536</v>
       </c>
       <c r="G398" s="4">
@@ -20362,7 +20356,7 @@
       <c r="E399" s="3">
         <v>40909</v>
       </c>
-      <c r="F399" s="7">
+      <c r="F399" s="6">
         <v>45159</v>
       </c>
       <c r="G399" s="4">
@@ -20394,7 +20388,7 @@
       <c r="E400" s="3">
         <v>41275</v>
       </c>
-      <c r="F400" s="7">
+      <c r="F400" s="6">
         <v>47512</v>
       </c>
       <c r="G400" s="4">
@@ -20426,7 +20420,7 @@
       <c r="E401" s="3">
         <v>41640</v>
       </c>
-      <c r="F401" s="7">
+      <c r="F401" s="6">
         <v>48410</v>
       </c>
       <c r="G401" s="4">
@@ -20458,7 +20452,7 @@
       <c r="E402" s="3">
         <v>42005</v>
       </c>
-      <c r="F402" s="7">
+      <c r="F402" s="6">
         <v>51407</v>
       </c>
       <c r="G402" s="4">
@@ -20490,7 +20484,7 @@
       <c r="E403" s="3">
         <v>42370</v>
       </c>
-      <c r="F403" s="7">
+      <c r="F403" s="6">
         <v>52672</v>
       </c>
       <c r="G403" s="4">
@@ -20522,7 +20516,7 @@
       <c r="E404" s="3">
         <v>42736</v>
       </c>
-      <c r="F404" s="7">
+      <c r="F404" s="6">
         <v>56406</v>
       </c>
       <c r="G404" s="4">
@@ -20554,7 +20548,7 @@
       <c r="E405" s="3">
         <v>43101</v>
       </c>
-      <c r="F405" s="7">
+      <c r="F405" s="6">
         <v>59266</v>
       </c>
       <c r="G405" s="4">
@@ -20586,7 +20580,7 @@
       <c r="E406" s="3">
         <v>43466</v>
       </c>
-      <c r="F406" s="7">
+      <c r="F406" s="6">
         <v>61305</v>
       </c>
       <c r="G406" s="4">
@@ -20618,7 +20612,7 @@
       <c r="E407" s="3">
         <v>43831</v>
       </c>
-      <c r="F407" s="7">
+      <c r="F407" s="6">
         <v>62213</v>
       </c>
       <c r="G407" s="4">
@@ -20650,7 +20644,7 @@
       <c r="E408" s="3">
         <v>44197</v>
       </c>
-      <c r="F408" s="7">
+      <c r="F408" s="6">
         <v>62948</v>
       </c>
       <c r="G408" s="4">
@@ -20682,7 +20676,7 @@
       <c r="E409" s="3">
         <v>40544</v>
       </c>
-      <c r="F409" s="7">
+      <c r="F409" s="6">
         <v>50945</v>
       </c>
       <c r="G409" s="4">
@@ -20714,7 +20708,7 @@
       <c r="E410" s="3">
         <v>40909</v>
       </c>
-      <c r="F410" s="7">
+      <c r="F410" s="6">
         <v>52622</v>
       </c>
       <c r="G410" s="4">
@@ -20746,7 +20740,7 @@
       <c r="E411" s="3">
         <v>41275</v>
       </c>
-      <c r="F411" s="7">
+      <c r="F411" s="6">
         <v>53550</v>
       </c>
       <c r="G411" s="4">
@@ -20778,7 +20772,7 @@
       <c r="E412" s="3">
         <v>41640</v>
       </c>
-      <c r="F412" s="7">
+      <c r="F412" s="6">
         <v>53915</v>
       </c>
       <c r="G412" s="4">
@@ -20810,7 +20804,7 @@
       <c r="E413" s="3">
         <v>42005</v>
       </c>
-      <c r="F413" s="7">
+      <c r="F413" s="6">
         <v>56079</v>
       </c>
       <c r="G413" s="4">
@@ -20842,7 +20836,7 @@
       <c r="E414" s="3">
         <v>42370</v>
       </c>
-      <c r="F414" s="7">
+      <c r="F414" s="6">
         <v>60308</v>
       </c>
       <c r="G414" s="4">
@@ -20874,7 +20868,7 @@
       <c r="E415" s="3">
         <v>42736</v>
       </c>
-      <c r="F415" s="7">
+      <c r="F415" s="6">
         <v>59514</v>
       </c>
       <c r="G415" s="4">
@@ -20906,7 +20900,7 @@
       <c r="E416" s="3">
         <v>43101</v>
       </c>
-      <c r="F416" s="7">
+      <c r="F416" s="6">
         <v>65331</v>
       </c>
       <c r="G416" s="4">
@@ -20938,7 +20932,7 @@
       <c r="E417" s="3">
         <v>43466</v>
       </c>
-      <c r="F417" s="7">
+      <c r="F417" s="6">
         <v>70527</v>
       </c>
       <c r="G417" s="4">
@@ -20970,7 +20964,7 @@
       <c r="E418" s="3">
         <v>43831</v>
       </c>
-      <c r="F418" s="7">
+      <c r="F418" s="6">
         <v>67719</v>
       </c>
       <c r="G418" s="4">
@@ -21002,7 +20996,7 @@
       <c r="E419" s="3">
         <v>44197</v>
       </c>
-      <c r="F419" s="7">
+      <c r="F419" s="6">
         <v>74579</v>
       </c>
       <c r="G419" s="4">
@@ -21034,7 +21028,7 @@
       <c r="E420" s="3">
         <v>40544</v>
       </c>
-      <c r="F420" s="7">
+      <c r="F420" s="6">
         <v>52040</v>
       </c>
       <c r="G420" s="4">
@@ -21066,7 +21060,7 @@
       <c r="E421" s="3">
         <v>40909</v>
       </c>
-      <c r="F421" s="7">
+      <c r="F421" s="6">
         <v>53653</v>
       </c>
       <c r="G421" s="4">
@@ -21098,7 +21092,7 @@
       <c r="E422" s="3">
         <v>41275</v>
       </c>
-      <c r="F422" s="7">
+      <c r="F422" s="6">
         <v>55170</v>
       </c>
       <c r="G422" s="4">
@@ -21130,7 +21124,7 @@
       <c r="E423" s="3">
         <v>41640</v>
       </c>
-      <c r="F423" s="7">
+      <c r="F423" s="6">
         <v>53475</v>
       </c>
       <c r="G423" s="4">
@@ -21162,7 +21156,7 @@
       <c r="E424" s="3">
         <v>42005</v>
       </c>
-      <c r="F424" s="7">
+      <c r="F424" s="6">
         <v>56910</v>
       </c>
       <c r="G424" s="4">
@@ -21194,7 +21188,7 @@
       <c r="E425" s="3">
         <v>42370</v>
       </c>
-      <c r="F425" s="7">
+      <c r="F425" s="6">
         <v>64456</v>
       </c>
       <c r="G425" s="4">
@@ -21226,7 +21220,7 @@
       <c r="E426" s="3">
         <v>42736</v>
       </c>
-      <c r="F426" s="7">
+      <c r="F426" s="6">
         <v>64660</v>
       </c>
       <c r="G426" s="4">
@@ -21258,7 +21252,7 @@
       <c r="E427" s="3">
         <v>43101</v>
       </c>
-      <c r="F427" s="7">
+      <c r="F427" s="6">
         <v>65695</v>
       </c>
       <c r="G427" s="4">
@@ -21290,7 +21284,7 @@
       <c r="E428" s="3">
         <v>43466</v>
       </c>
-      <c r="F428" s="7">
+      <c r="F428" s="6">
         <v>69333</v>
       </c>
       <c r="G428" s="4">
@@ -21322,7 +21316,7 @@
       <c r="E429" s="3">
         <v>43831</v>
       </c>
-      <c r="F429" s="7">
+      <c r="F429" s="6">
         <v>69720</v>
       </c>
       <c r="G429" s="4">
@@ -21354,7 +21348,7 @@
       <c r="E430" s="3">
         <v>44197</v>
       </c>
-      <c r="F430" s="7">
+      <c r="F430" s="6">
         <v>74612</v>
       </c>
       <c r="G430" s="4">
@@ -21386,7 +21380,7 @@
       <c r="E431" s="3">
         <v>40544</v>
       </c>
-      <c r="F431" s="7">
+      <c r="F431" s="6">
         <v>64614</v>
       </c>
       <c r="G431" s="4">
@@ -21418,7 +21412,7 @@
       <c r="E432" s="3">
         <v>40909</v>
       </c>
-      <c r="F432" s="7">
+      <c r="F432" s="6">
         <v>61626</v>
       </c>
       <c r="G432" s="4">
@@ -21450,7 +21444,7 @@
       <c r="E433" s="3">
         <v>41275</v>
       </c>
-      <c r="F433" s="7">
+      <c r="F433" s="6">
         <v>62855</v>
       </c>
       <c r="G433" s="4">
@@ -21482,7 +21476,7 @@
       <c r="E434" s="3">
         <v>41640</v>
       </c>
-      <c r="F434" s="7">
+      <c r="F434" s="6">
         <v>68816</v>
       </c>
       <c r="G434" s="4">
@@ -21514,7 +21508,7 @@
       <c r="E435" s="3">
         <v>42005</v>
       </c>
-      <c r="F435" s="7">
+      <c r="F435" s="6">
         <v>67281</v>
       </c>
       <c r="G435" s="4">
@@ -21546,7 +21540,7 @@
       <c r="E436" s="3">
         <v>42370</v>
       </c>
-      <c r="F436" s="7">
+      <c r="F436" s="6">
         <v>71117</v>
       </c>
       <c r="G436" s="4">
@@ -21578,7 +21572,7 @@
       <c r="E437" s="3">
         <v>42736</v>
       </c>
-      <c r="F437" s="7">
+      <c r="F437" s="6">
         <v>72586</v>
       </c>
       <c r="G437" s="4">
@@ -21610,7 +21604,7 @@
       <c r="E438" s="3">
         <v>43101</v>
       </c>
-      <c r="F438" s="7">
+      <c r="F438" s="6">
         <v>77059</v>
       </c>
       <c r="G438" s="4">
@@ -21642,7 +21636,7 @@
       <c r="E439" s="3">
         <v>43466</v>
       </c>
-      <c r="F439" s="7">
+      <c r="F439" s="6">
         <v>79054</v>
       </c>
       <c r="G439" s="4">
@@ -21674,7 +21668,7 @@
       <c r="E440" s="3">
         <v>43831</v>
       </c>
-      <c r="F440" s="7">
+      <c r="F440" s="6">
         <v>78136</v>
       </c>
       <c r="G440" s="4">
@@ -21706,7 +21700,7 @@
       <c r="E441" s="3">
         <v>44197</v>
       </c>
-      <c r="F441" s="7">
+      <c r="F441" s="6">
         <v>81634</v>
       </c>
       <c r="G441" s="4">
@@ -21738,7 +21732,7 @@
       <c r="E442" s="3">
         <v>40544</v>
       </c>
-      <c r="F442" s="7">
+      <c r="F442" s="6">
         <v>51214</v>
       </c>
       <c r="G442" s="4">
@@ -21770,7 +21764,7 @@
       <c r="E443" s="3">
         <v>40909</v>
       </c>
-      <c r="F443" s="7">
+      <c r="F443" s="6">
         <v>47837</v>
       </c>
       <c r="G443" s="4">
@@ -21802,7 +21796,7 @@
       <c r="E444" s="3">
         <v>41275</v>
       </c>
-      <c r="F444" s="7">
+      <c r="F444" s="6">
         <v>52116</v>
       </c>
       <c r="G444" s="4">
@@ -21834,7 +21828,7 @@
       <c r="E445" s="3">
         <v>41640</v>
       </c>
-      <c r="F445" s="7">
+      <c r="F445" s="6">
         <v>54511</v>
       </c>
       <c r="G445" s="4">
@@ -21866,7 +21860,7 @@
       <c r="E446" s="3">
         <v>42005</v>
       </c>
-      <c r="F446" s="7">
+      <c r="F446" s="6">
         <v>54971</v>
       </c>
       <c r="G446" s="4">
@@ -21898,7 +21892,7 @@
       <c r="E447" s="3">
         <v>42370</v>
       </c>
-      <c r="F447" s="7">
+      <c r="F447" s="6">
         <v>60075</v>
       </c>
       <c r="G447" s="4">
@@ -21930,7 +21924,7 @@
       <c r="E448" s="3">
         <v>42736</v>
       </c>
-      <c r="F448" s="7">
+      <c r="F448" s="6">
         <v>60557</v>
       </c>
       <c r="G448" s="4">
@@ -21962,7 +21956,7 @@
       <c r="E449" s="3">
         <v>43101</v>
       </c>
-      <c r="F449" s="7">
+      <c r="F449" s="6">
         <v>61610</v>
       </c>
       <c r="G449" s="4">
@@ -21994,7 +21988,7 @@
       <c r="E450" s="3">
         <v>43466</v>
       </c>
-      <c r="F450" s="7">
+      <c r="F450" s="6">
         <v>67804</v>
       </c>
       <c r="G450" s="4">
@@ -22026,7 +22020,7 @@
       <c r="E451" s="3">
         <v>43831</v>
       </c>
-      <c r="F451" s="7">
+      <c r="F451" s="6">
         <v>66410</v>
       </c>
       <c r="G451" s="4">
@@ -22058,7 +22052,7 @@
       <c r="E452" s="3">
         <v>44197</v>
       </c>
-      <c r="F452" s="7">
+      <c r="F452" s="6">
         <v>73905</v>
       </c>
       <c r="G452" s="4">
@@ -22090,7 +22084,7 @@
       <c r="E453" s="3">
         <v>40544</v>
       </c>
-      <c r="F453" s="7">
+      <c r="F453" s="6">
         <v>28536</v>
       </c>
       <c r="G453" s="4">
@@ -22122,7 +22116,7 @@
       <c r="E454" s="3">
         <v>40909</v>
       </c>
-      <c r="F454" s="7">
+      <c r="F454" s="6">
         <v>28301</v>
       </c>
       <c r="G454" s="4">
@@ -22154,7 +22148,7 @@
       <c r="E455" s="3">
         <v>41275</v>
       </c>
-      <c r="F455" s="7">
+      <c r="F455" s="6">
         <v>31070</v>
       </c>
       <c r="G455" s="4">
@@ -22186,7 +22180,7 @@
       <c r="E456" s="3">
         <v>41640</v>
       </c>
-      <c r="F456" s="7">
+      <c r="F456" s="6">
         <v>31917</v>
       </c>
       <c r="G456" s="4">
@@ -22218,7 +22212,7 @@
       <c r="E457" s="3">
         <v>42005</v>
       </c>
-      <c r="F457" s="7">
+      <c r="F457" s="6">
         <v>29989</v>
       </c>
       <c r="G457" s="4">
@@ -22250,7 +22244,7 @@
       <c r="E458" s="3">
         <v>42370</v>
       </c>
-      <c r="F458" s="7">
+      <c r="F458" s="6">
         <v>34901</v>
       </c>
       <c r="G458" s="4">
@@ -22282,7 +22276,7 @@
       <c r="E459" s="3">
         <v>42736</v>
       </c>
-      <c r="F459" s="7">
+      <c r="F459" s="6">
         <v>40327</v>
       </c>
       <c r="G459" s="4">
@@ -22314,7 +22308,7 @@
       <c r="E460" s="3">
         <v>43101</v>
       </c>
-      <c r="F460" s="7">
+      <c r="F460" s="6">
         <v>41818</v>
       </c>
       <c r="G460" s="4">
@@ -22346,7 +22340,7 @@
       <c r="E461" s="3">
         <v>43466</v>
       </c>
-      <c r="F461" s="7">
+      <c r="F461" s="6">
         <v>42966</v>
       </c>
       <c r="G461" s="4">
@@ -22378,7 +22372,7 @@
       <c r="E462" s="3">
         <v>43831</v>
       </c>
-      <c r="F462" s="7">
+      <c r="F462" s="6">
         <v>44268</v>
       </c>
       <c r="G462" s="4">
@@ -22410,7 +22404,7 @@
       <c r="E463" s="3">
         <v>44197</v>
       </c>
-      <c r="F463" s="7">
+      <c r="F463" s="6">
         <v>48789</v>
       </c>
       <c r="G463" s="4">
@@ -22442,7 +22436,7 @@
       <c r="E464" s="3">
         <v>40544</v>
       </c>
-      <c r="F464" s="7">
+      <c r="F464" s="6">
         <v>50500</v>
       </c>
       <c r="G464" s="4">
@@ -22474,7 +22468,7 @@
       <c r="E465" s="3">
         <v>40909</v>
       </c>
-      <c r="F465" s="7">
+      <c r="F465" s="6">
         <v>48196</v>
       </c>
       <c r="G465" s="4">
@@ -22506,7 +22500,7 @@
       <c r="E466" s="3">
         <v>41275</v>
       </c>
-      <c r="F466" s="7">
+      <c r="F466" s="6">
         <v>54394</v>
       </c>
       <c r="G466" s="4">
@@ -22538,7 +22532,7 @@
       <c r="E467" s="3">
         <v>41640</v>
       </c>
-      <c r="F467" s="7">
+      <c r="F467" s="6">
         <v>56188</v>
       </c>
       <c r="G467" s="4">
@@ -22570,7 +22564,7 @@
       <c r="E468" s="3">
         <v>42005</v>
       </c>
-      <c r="F468" s="7">
+      <c r="F468" s="6">
         <v>58807</v>
       </c>
       <c r="G468" s="4">
@@ -22602,7 +22596,7 @@
       <c r="E469" s="3">
         <v>42370</v>
       </c>
-      <c r="F469" s="7">
+      <c r="F469" s="6">
         <v>68060</v>
       </c>
       <c r="G469" s="4">
@@ -22634,7 +22628,7 @@
       <c r="E470" s="3">
         <v>42736</v>
       </c>
-      <c r="F470" s="7">
+      <c r="F470" s="6">
         <v>70577</v>
       </c>
       <c r="G470" s="4">
@@ -22666,7 +22660,7 @@
       <c r="E471" s="3">
         <v>43101</v>
       </c>
-      <c r="F471" s="7">
+      <c r="F471" s="6">
         <v>76469</v>
       </c>
       <c r="G471" s="4">
@@ -22698,7 +22692,7 @@
       <c r="E472" s="3">
         <v>43466</v>
       </c>
-      <c r="F472" s="7">
+      <c r="F472" s="6">
         <v>82018</v>
       </c>
       <c r="G472" s="4">
@@ -22730,7 +22724,7 @@
       <c r="E473" s="3">
         <v>43831</v>
       </c>
-      <c r="F473" s="7">
+      <c r="F473" s="6">
         <v>80143</v>
       </c>
       <c r="G473" s="4">
@@ -22762,7 +22756,7 @@
       <c r="E474" s="3">
         <v>44197</v>
       </c>
-      <c r="F474" s="7">
+      <c r="F474" s="6">
         <v>82236</v>
       </c>
       <c r="G474" s="4">
@@ -22794,7 +22788,7 @@
       <c r="E475" s="3">
         <v>40544</v>
       </c>
-      <c r="F475" s="7">
+      <c r="F475" s="6">
         <v>46682</v>
       </c>
       <c r="G475" s="4">
@@ -22826,7 +22820,7 @@
       <c r="E476" s="3">
         <v>40909</v>
       </c>
-      <c r="F476" s="7">
+      <c r="F476" s="6">
         <v>47604</v>
       </c>
       <c r="G476" s="4">
@@ -22858,7 +22852,7 @@
       <c r="E477" s="3">
         <v>41275</v>
       </c>
-      <c r="F477" s="7">
+      <c r="F477" s="6">
         <v>50563</v>
       </c>
       <c r="G477" s="4">
@@ -22890,7 +22884,7 @@
       <c r="E478" s="3">
         <v>41640</v>
       </c>
-      <c r="F478" s="7">
+      <c r="F478" s="6">
         <v>50791</v>
       </c>
       <c r="G478" s="4">
@@ -22922,7 +22916,7 @@
       <c r="E479" s="3">
         <v>42005</v>
       </c>
-      <c r="F479" s="7">
+      <c r="F479" s="6">
         <v>54571</v>
       </c>
       <c r="G479" s="4">
@@ -22954,7 +22948,7 @@
       <c r="E480" s="3">
         <v>42370</v>
       </c>
-      <c r="F480" s="7">
+      <c r="F480" s="6">
         <v>56255</v>
       </c>
       <c r="G480" s="4">
@@ -22986,7 +22980,7 @@
       <c r="E481" s="3">
         <v>42736</v>
       </c>
-      <c r="F481" s="7">
+      <c r="F481" s="6">
         <v>60789</v>
       </c>
       <c r="G481" s="4">
@@ -23018,7 +23012,7 @@
       <c r="E482" s="3">
         <v>43101</v>
       </c>
-      <c r="F482" s="7">
+      <c r="F482" s="6">
         <v>63590</v>
       </c>
       <c r="G482" s="4">
@@ -23050,7 +23044,7 @@
       <c r="E483" s="3">
         <v>43466</v>
       </c>
-      <c r="F483" s="7">
+      <c r="F483" s="6">
         <v>65889</v>
       </c>
       <c r="G483" s="4">
@@ -23082,7 +23076,7 @@
       <c r="E484" s="3">
         <v>43831</v>
       </c>
-      <c r="F484" s="7">
+      <c r="F484" s="6">
         <v>66068</v>
       </c>
       <c r="G484" s="4">
@@ -23114,7 +23108,7 @@
       <c r="E485" s="3">
         <v>44197</v>
       </c>
-      <c r="F485" s="7">
+      <c r="F485" s="6">
         <v>69397</v>
       </c>
       <c r="G485" s="4">
@@ -23146,7 +23140,7 @@
       <c r="E486" s="3">
         <v>40544</v>
       </c>
-      <c r="F486" s="7">
+      <c r="F486" s="6">
         <v>40123</v>
       </c>
       <c r="G486" s="4">
@@ -23178,7 +23172,7 @@
       <c r="E487" s="3">
         <v>40909</v>
       </c>
-      <c r="F487" s="7">
+      <c r="F487" s="6">
         <v>40440</v>
       </c>
       <c r="G487" s="4">
@@ -23210,7 +23204,7 @@
       <c r="E488" s="3">
         <v>41275</v>
       </c>
-      <c r="F488" s="7">
+      <c r="F488" s="6">
         <v>41495</v>
       </c>
       <c r="G488" s="4">
@@ -23242,7 +23236,7 @@
       <c r="E489" s="3">
         <v>41640</v>
       </c>
-      <c r="F489" s="7">
+      <c r="F489" s="6">
         <v>42803</v>
       </c>
       <c r="G489" s="4">
@@ -23274,7 +23268,7 @@
       <c r="E490" s="3">
         <v>42005</v>
       </c>
-      <c r="F490" s="7">
+      <c r="F490" s="6">
         <v>43322</v>
       </c>
       <c r="G490" s="4">
@@ -23306,7 +23300,7 @@
       <c r="E491" s="3">
         <v>42370</v>
       </c>
-      <c r="F491" s="7">
+      <c r="F491" s="6">
         <v>43134</v>
       </c>
       <c r="G491" s="4">
@@ -23338,7 +23332,7 @@
       <c r="E492" s="3">
         <v>42736</v>
       </c>
-      <c r="F492" s="7">
+      <c r="F492" s="6">
         <v>45894</v>
       </c>
       <c r="G492" s="4">
@@ -23370,7 +23364,7 @@
       <c r="E493" s="3">
         <v>43101</v>
       </c>
-      <c r="F493" s="7">
+      <c r="F493" s="6">
         <v>47583</v>
       </c>
       <c r="G493" s="4">
@@ -23402,7 +23396,7 @@
       <c r="E494" s="3">
         <v>43466</v>
       </c>
-      <c r="F494" s="7">
+      <c r="F494" s="6">
         <v>49158</v>
       </c>
       <c r="G494" s="4">
@@ -23434,7 +23428,7 @@
       <c r="E495" s="3">
         <v>43831</v>
       </c>
-      <c r="F495" s="7">
+      <c r="F495" s="6">
         <v>49474</v>
       </c>
       <c r="G495" s="4">
@@ -23466,7 +23460,7 @@
       <c r="E496" s="3">
         <v>44197</v>
       </c>
-      <c r="F496" s="7">
+      <c r="F496" s="6">
         <v>51008</v>
       </c>
       <c r="G496" s="4">
@@ -23498,7 +23492,7 @@
       <c r="E497" s="3">
         <v>40544</v>
       </c>
-      <c r="F497" s="7">
+      <c r="F497" s="6">
         <v>51667</v>
       </c>
       <c r="G497" s="4">
@@ -23530,7 +23524,7 @@
       <c r="E498" s="3">
         <v>40909</v>
       </c>
-      <c r="F498" s="7">
+      <c r="F498" s="6">
         <v>53693</v>
       </c>
       <c r="G498" s="4">
@@ -23562,7 +23556,7 @@
       <c r="E499" s="3">
         <v>41275</v>
       </c>
-      <c r="F499" s="7">
+      <c r="F499" s="6">
         <v>54763</v>
       </c>
       <c r="G499" s="4">
@@ -23594,7 +23588,7 @@
       <c r="E500" s="3">
         <v>41640</v>
       </c>
-      <c r="F500" s="7">
+      <c r="F500" s="6">
         <v>58154</v>
       </c>
       <c r="G500" s="4">
@@ -23626,7 +23620,7 @@
       <c r="E501" s="3">
         <v>42005</v>
       </c>
-      <c r="F501" s="7">
+      <c r="F501" s="6">
         <v>61039</v>
       </c>
       <c r="G501" s="4">
@@ -23658,7 +23652,7 @@
       <c r="E502" s="3">
         <v>42370</v>
       </c>
-      <c r="F502" s="7">
+      <c r="F502" s="6">
         <v>59233</v>
       </c>
       <c r="G502" s="4">
@@ -23690,7 +23684,7 @@
       <c r="E503" s="3">
         <v>42736</v>
       </c>
-      <c r="F503" s="7">
+      <c r="F503" s="6">
         <v>57105</v>
       </c>
       <c r="G503" s="4">
@@ -23722,7 +23716,7 @@
       <c r="E504" s="3">
         <v>43101</v>
       </c>
-      <c r="F504" s="7">
+      <c r="F504" s="6">
         <v>60002</v>
       </c>
       <c r="G504" s="4">
@@ -23754,7 +23748,7 @@
       <c r="E505" s="3">
         <v>43466</v>
       </c>
-      <c r="F505" s="7">
+      <c r="F505" s="6">
         <v>62402</v>
       </c>
       <c r="G505" s="4">
@@ -23786,7 +23780,7 @@
       <c r="E506" s="3">
         <v>43831</v>
       </c>
-      <c r="F506" s="7">
+      <c r="F506" s="6">
         <v>65687</v>
       </c>
       <c r="G506" s="4">
@@ -23818,7 +23812,7 @@
       <c r="E507" s="3">
         <v>44197</v>
       </c>
-      <c r="F507" s="7">
+      <c r="F507" s="6">
         <v>66666</v>
       </c>
       <c r="G507" s="4">
@@ -23850,7 +23844,7 @@
       <c r="E508" s="3">
         <v>40544</v>
       </c>
-      <c r="F508" s="7">
+      <c r="F508" s="6">
         <v>44184</v>
       </c>
       <c r="G508" s="4">
@@ -23882,7 +23876,7 @@
       <c r="E509" s="3">
         <v>40909</v>
       </c>
-      <c r="F509" s="7">
+      <c r="F509" s="6">
         <v>43776</v>
       </c>
       <c r="G509" s="4">
@@ -23914,7 +23908,7 @@
       <c r="E510" s="3">
         <v>41275</v>
       </c>
-      <c r="F510" s="7">
+      <c r="F510" s="6">
         <v>43538</v>
       </c>
       <c r="G510" s="4">
@@ -23946,7 +23940,7 @@
       <c r="E511" s="3">
         <v>41640</v>
       </c>
-      <c r="F511" s="7">
+      <c r="F511" s="6">
         <v>51175</v>
       </c>
       <c r="G511" s="4">
@@ -23958,7 +23952,7 @@
       <c r="I511" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J511" s="8" t="s">
+      <c r="J511" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -23978,7 +23972,7 @@
       <c r="E512" s="3">
         <v>42005</v>
       </c>
-      <c r="F512" s="7">
+      <c r="F512" s="6">
         <v>46894</v>
       </c>
       <c r="G512" s="4">
@@ -24010,7 +24004,7 @@
       <c r="E513" s="3">
         <v>42370</v>
       </c>
-      <c r="F513" s="7">
+      <c r="F513" s="6">
         <v>49202</v>
       </c>
       <c r="G513" s="4">
@@ -24042,7 +24036,7 @@
       <c r="E514" s="3">
         <v>42736</v>
       </c>
-      <c r="F514" s="7">
+      <c r="F514" s="6">
         <v>50504</v>
       </c>
       <c r="G514" s="4">
@@ -24074,7 +24068,7 @@
       <c r="E515" s="3">
         <v>43101</v>
       </c>
-      <c r="F515" s="7">
+      <c r="F515" s="6">
         <v>51051</v>
       </c>
       <c r="G515" s="4">
@@ -24106,7 +24100,7 @@
       <c r="E516" s="3">
         <v>43466</v>
       </c>
-      <c r="F516" s="7">
+      <c r="F516" s="6">
         <v>60014</v>
       </c>
       <c r="G516" s="4">
@@ -24118,7 +24112,7 @@
       <c r="I516" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J516" s="8" t="s">
+      <c r="J516" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -24138,7 +24132,7 @@
       <c r="E517" s="3">
         <v>43831</v>
       </c>
-      <c r="F517" s="7">
+      <c r="F517" s="6">
         <v>53466</v>
       </c>
       <c r="G517" s="4">
@@ -24170,7 +24164,7 @@
       <c r="E518" s="3">
         <v>44197</v>
       </c>
-      <c r="F518" s="7">
+      <c r="F518" s="6">
         <v>56293</v>
       </c>
       <c r="G518" s="4">
@@ -24202,7 +24196,7 @@
       <c r="E519" s="3">
         <v>40544</v>
       </c>
-      <c r="F519" s="7">
+      <c r="F519" s="6">
         <v>50655</v>
       </c>
       <c r="G519" s="4">
@@ -24234,7 +24228,7 @@
       <c r="E520" s="3">
         <v>40909</v>
       </c>
-      <c r="F520" s="7">
+      <c r="F520" s="6">
         <v>51285</v>
       </c>
       <c r="G520" s="4">
@@ -24266,7 +24260,7 @@
       <c r="E521" s="3">
         <v>41275</v>
       </c>
-      <c r="F521" s="7">
+      <c r="F521" s="6">
         <v>51400</v>
       </c>
       <c r="G521" s="4">
@@ -24298,7 +24292,7 @@
       <c r="E522" s="3">
         <v>41640</v>
       </c>
-      <c r="F522" s="7">
+      <c r="F522" s="6">
         <v>52141</v>
       </c>
       <c r="G522" s="4">
@@ -24330,7 +24324,7 @@
       <c r="E523" s="3">
         <v>42005</v>
       </c>
-      <c r="F523" s="7">
+      <c r="F523" s="6">
         <v>53487</v>
       </c>
       <c r="G523" s="4">
@@ -24362,7 +24356,7 @@
       <c r="E524" s="3">
         <v>42370</v>
       </c>
-      <c r="F524" s="7">
+      <c r="F524" s="6">
         <v>54272</v>
       </c>
       <c r="G524" s="4">
@@ -24394,7 +24388,7 @@
       <c r="E525" s="3">
         <v>42736</v>
       </c>
-      <c r="F525" s="7">
+      <c r="F525" s="6">
         <v>57083</v>
       </c>
       <c r="G525" s="4">
@@ -24426,7 +24420,7 @@
       <c r="E526" s="3">
         <v>43101</v>
       </c>
-      <c r="F526" s="7">
+      <c r="F526" s="6">
         <v>63091</v>
       </c>
       <c r="G526" s="4">
@@ -24458,7 +24452,7 @@
       <c r="E527" s="3">
         <v>43466</v>
       </c>
-      <c r="F527" s="7">
+      <c r="F527" s="6">
         <v>61716</v>
       </c>
       <c r="G527" s="4">
@@ -24490,7 +24484,7 @@
       <c r="E528" s="3">
         <v>43831</v>
       </c>
-      <c r="F528" s="7">
+      <c r="F528" s="6">
         <v>63351</v>
       </c>
       <c r="G528" s="4">
@@ -24522,7 +24516,7 @@
       <c r="E529" s="3">
         <v>44197</v>
       </c>
-      <c r="F529" s="7">
+      <c r="F529" s="6">
         <v>59889</v>
       </c>
       <c r="G529" s="4">
@@ -24554,7 +24548,7 @@
       <c r="E530" s="3">
         <v>40544</v>
       </c>
-      <c r="F530" s="7">
+      <c r="F530" s="6">
         <v>49593</v>
       </c>
       <c r="G530" s="4">
@@ -24586,7 +24580,7 @@
       <c r="E531" s="3">
         <v>40909</v>
       </c>
-      <c r="F531" s="7">
+      <c r="F531" s="6">
         <v>50512</v>
       </c>
       <c r="G531" s="4">
@@ -24618,7 +24612,7 @@
       <c r="E532" s="3">
         <v>41275</v>
       </c>
-      <c r="F532" s="7">
+      <c r="F532" s="6">
         <v>49142</v>
       </c>
       <c r="G532" s="4">
@@ -24650,7 +24644,7 @@
       <c r="E533" s="3">
         <v>41640</v>
       </c>
-      <c r="F533" s="7">
+      <c r="F533" s="6">
         <v>54702</v>
       </c>
       <c r="G533" s="4">
@@ -24682,7 +24676,7 @@
       <c r="E534" s="3">
         <v>42005</v>
       </c>
-      <c r="F534" s="7">
+      <c r="F534" s="6">
         <v>58445</v>
       </c>
       <c r="G534" s="4">
@@ -24714,7 +24708,7 @@
       <c r="E535" s="3">
         <v>42370</v>
       </c>
-      <c r="F535" s="7">
+      <c r="F535" s="6">
         <v>59467</v>
       </c>
       <c r="G535" s="4">
@@ -24746,7 +24740,7 @@
       <c r="E536" s="3">
         <v>42736</v>
       </c>
-      <c r="F536" s="7">
+      <c r="F536" s="6">
         <v>63055</v>
       </c>
       <c r="G536" s="4">
@@ -24778,7 +24772,7 @@
       <c r="E537" s="3">
         <v>43101</v>
       </c>
-      <c r="F537" s="7">
+      <c r="F537" s="6">
         <v>63128</v>
       </c>
       <c r="G537" s="4">
@@ -24810,7 +24804,7 @@
       <c r="E538" s="3">
         <v>43466</v>
       </c>
-      <c r="F538" s="7">
+      <c r="F538" s="6">
         <v>69235</v>
       </c>
       <c r="G538" s="4">
@@ -24842,7 +24836,7 @@
       <c r="E539" s="3">
         <v>43831</v>
       </c>
-      <c r="F539" s="7">
+      <c r="F539" s="6">
         <v>67723</v>
       </c>
       <c r="G539" s="4">
@@ -24874,7 +24868,7 @@
       <c r="E540" s="3">
         <v>44197</v>
       </c>
-      <c r="F540" s="7">
+      <c r="F540" s="6">
         <v>71647</v>
       </c>
       <c r="G540" s="4">
@@ -24906,7 +24900,7 @@
       <c r="E541" s="3">
         <v>40544</v>
       </c>
-      <c r="F541" s="7">
+      <c r="F541" s="6">
         <v>40073</v>
       </c>
       <c r="G541" s="4">
@@ -24938,7 +24932,7 @@
       <c r="E542" s="3">
         <v>40909</v>
       </c>
-      <c r="F542" s="7">
+      <c r="F542" s="6">
         <v>40894</v>
       </c>
       <c r="G542" s="4">
@@ -24970,7 +24964,7 @@
       <c r="E543" s="3">
         <v>41275</v>
       </c>
-      <c r="F543" s="7">
+      <c r="F543" s="6">
         <v>42649</v>
       </c>
       <c r="G543" s="4">
@@ -25002,7 +24996,7 @@
       <c r="E544" s="3">
         <v>41640</v>
       </c>
-      <c r="F544" s="7">
+      <c r="F544" s="6">
         <v>50758</v>
       </c>
       <c r="G544" s="4">
@@ -25014,7 +25008,7 @@
       <c r="I544" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="J544" s="8" t="s">
+      <c r="J544" s="7" t="s">
         <v>2353</v>
       </c>
     </row>
@@ -25034,7 +25028,7 @@
       <c r="E545" s="3">
         <v>42005</v>
       </c>
-      <c r="F545" s="7">
+      <c r="F545" s="6">
         <v>44432</v>
       </c>
       <c r="G545" s="4">
@@ -25066,7 +25060,7 @@
       <c r="E546" s="3">
         <v>42370</v>
       </c>
-      <c r="F546" s="7">
+      <c r="F546" s="6">
         <v>50405</v>
       </c>
       <c r="G546" s="4">
@@ -25098,7 +25092,7 @@
       <c r="E547" s="3">
         <v>42736</v>
       </c>
-      <c r="F547" s="7">
+      <c r="F547" s="6">
         <v>50489</v>
       </c>
       <c r="G547" s="4">
@@ -25130,7 +25124,7 @@
       <c r="E548" s="3">
         <v>43101</v>
       </c>
-      <c r="F548" s="7">
+      <c r="F548" s="6">
         <v>54599</v>
       </c>
       <c r="G548" s="4">
@@ -25162,7 +25156,7 @@
       <c r="E549" s="3">
         <v>43466</v>
       </c>
-      <c r="F549" s="7">
+      <c r="F549" s="6">
         <v>57709</v>
       </c>
       <c r="G549" s="4">
@@ -25194,7 +25188,7 @@
       <c r="E550" s="3">
         <v>43831</v>
       </c>
-      <c r="F550" s="7">
+      <c r="F550" s="6">
         <v>55634</v>
       </c>
       <c r="G550" s="4">
@@ -25226,7 +25220,7 @@
       <c r="E551" s="3">
         <v>44197</v>
       </c>
-      <c r="F551" s="7">
+      <c r="F551" s="6">
         <v>63404</v>
       </c>
       <c r="G551" s="4">
@@ -25258,7 +25252,7 @@
       <c r="E552" s="3">
         <v>40544</v>
       </c>
-      <c r="F552" s="7">
+      <c r="F552" s="6">
         <v>35041</v>
       </c>
       <c r="G552" s="4">
@@ -25290,7 +25284,7 @@
       <c r="E553" s="3">
         <v>40909</v>
       </c>
-      <c r="F553" s="7">
+      <c r="F553" s="6">
         <v>34361</v>
       </c>
       <c r="G553" s="4">
@@ -25322,7 +25316,7 @@
       <c r="E554" s="3">
         <v>41275</v>
       </c>
-      <c r="F554" s="7">
+      <c r="F554" s="6">
         <v>36631</v>
       </c>
       <c r="G554" s="4">
@@ -25354,7 +25348,7 @@
       <c r="E555" s="3">
         <v>41640</v>
       </c>
-      <c r="F555" s="7">
+      <c r="F555" s="6">
         <v>35504</v>
       </c>
       <c r="G555" s="4">
@@ -25386,7 +25380,7 @@
       <c r="E556" s="3">
         <v>42005</v>
       </c>
-      <c r="F556" s="7">
+      <c r="F556" s="6">
         <v>39077</v>
       </c>
       <c r="G556" s="4">
@@ -25418,7 +25412,7 @@
       <c r="E557" s="3">
         <v>42370</v>
       </c>
-      <c r="F557" s="7">
+      <c r="F557" s="6">
         <v>38681</v>
       </c>
       <c r="G557" s="4">
@@ -25450,7 +25444,7 @@
       <c r="E558" s="3">
         <v>42736</v>
       </c>
-      <c r="F558" s="7">
+      <c r="F558" s="6">
         <v>36999</v>
       </c>
       <c r="G558" s="4">
@@ -25482,7 +25476,7 @@
       <c r="E559" s="3">
         <v>43101</v>
       </c>
-      <c r="F559" s="7">
+      <c r="F559" s="6">
         <v>38423</v>
       </c>
       <c r="G559" s="4">
@@ -25514,7 +25508,7 @@
       <c r="E560" s="3">
         <v>43466</v>
       </c>
-      <c r="F560" s="7">
+      <c r="F560" s="6">
         <v>45615</v>
       </c>
       <c r="G560" s="4">
@@ -25546,7 +25540,7 @@
       <c r="E561" s="3">
         <v>43831</v>
       </c>
-      <c r="F561" s="7">
+      <c r="F561" s="6">
         <v>43258</v>
       </c>
       <c r="G561" s="4">
@@ -25578,7 +25572,7 @@
       <c r="E562" s="3">
         <v>44197</v>
       </c>
-      <c r="F562" s="7">
+      <c r="F562" s="6">
         <v>46942</v>
       </c>
       <c r="G562" s="4">
@@ -25610,7 +25604,7 @@
       <c r="E563" s="3">
         <v>40544</v>
       </c>
-      <c r="F563" s="7">
+      <c r="F563" s="6">
         <v>25371</v>
       </c>
       <c r="G563" s="4">
@@ -25642,7 +25636,7 @@
       <c r="E564" s="3">
         <v>40909</v>
       </c>
-      <c r="F564" s="7">
+      <c r="F564" s="6">
         <v>24257</v>
       </c>
       <c r="G564" s="4">
@@ -25674,7 +25668,7 @@
       <c r="E565" s="3">
         <v>41275</v>
       </c>
-      <c r="F565" s="7">
+      <c r="F565" s="6">
         <v>26096</v>
       </c>
       <c r="G565" s="4">
@@ -25706,7 +25700,7 @@
       <c r="E566" s="3">
         <v>41640</v>
       </c>
-      <c r="F566" s="7">
+      <c r="F566" s="6">
         <v>24701</v>
       </c>
       <c r="G566" s="4">
@@ -25738,7 +25732,7 @@
       <c r="E567" s="3">
         <v>42005</v>
       </c>
-      <c r="F567" s="7">
+      <c r="F567" s="6">
         <v>28831</v>
       </c>
       <c r="G567" s="4">
@@ -25770,7 +25764,7 @@
       <c r="E568" s="3">
         <v>42370</v>
       </c>
-      <c r="F568" s="7">
+      <c r="F568" s="6">
         <v>27551</v>
       </c>
       <c r="G568" s="4">
@@ -25802,7 +25796,7 @@
       <c r="E569" s="3">
         <v>42736</v>
       </c>
-      <c r="F569" s="7">
+      <c r="F569" s="6">
         <v>28974</v>
       </c>
       <c r="G569" s="4">
@@ -25834,7 +25828,7 @@
       <c r="E570" s="3">
         <v>43101</v>
       </c>
-      <c r="F570" s="7">
+      <c r="F570" s="6">
         <v>29953</v>
       </c>
       <c r="G570" s="4">
@@ -25866,7 +25860,7 @@
       <c r="E571" s="3">
         <v>43466</v>
       </c>
-      <c r="F571" s="7">
+      <c r="F571" s="6">
         <v>32053</v>
       </c>
       <c r="G571" s="4">
@@ -25898,7 +25892,7 @@
       <c r="E572" s="3">
         <v>43831</v>
       </c>
-      <c r="F572" s="7">
+      <c r="F572" s="6">
         <v>31838</v>
       </c>
       <c r="G572" s="4">
@@ -25930,7 +25924,7 @@
       <c r="E573" s="3">
         <v>44197</v>
       </c>
-      <c r="F573" s="7">
+      <c r="F573" s="6">
         <v>35562</v>
       </c>
       <c r="G573" s="4">
@@ -25962,7 +25956,7 @@
       <c r="E574" s="3">
         <v>40544</v>
       </c>
-      <c r="F574" s="7">
+      <c r="F574" s="6">
         <v>56858</v>
       </c>
       <c r="G574" s="4">
@@ -25994,7 +25988,7 @@
       <c r="E575" s="3">
         <v>40909</v>
       </c>
-      <c r="F575" s="7">
+      <c r="F575" s="6">
         <v>55464</v>
       </c>
       <c r="G575" s="4">
@@ -26026,7 +26020,7 @@
       <c r="E576" s="3">
         <v>41275</v>
       </c>
-      <c r="F576" s="7">
+      <c r="F576" s="6">
         <v>57550</v>
       </c>
       <c r="G576" s="4">
@@ -26058,7 +26052,7 @@
       <c r="E577" s="3">
         <v>41640</v>
       </c>
-      <c r="F577" s="7">
+      <c r="F577" s="6">
         <v>62198</v>
       </c>
       <c r="G577" s="4">
@@ -26090,7 +26084,7 @@
       <c r="E578" s="3">
         <v>42005</v>
       </c>
-      <c r="F578" s="7">
+      <c r="F578" s="6">
         <v>63104</v>
       </c>
       <c r="G578" s="4">
@@ -26122,7 +26116,7 @@
       <c r="E579" s="3">
         <v>42370</v>
       </c>
-      <c r="F579" s="7">
+      <c r="F579" s="6">
         <v>64464</v>
       </c>
       <c r="G579" s="4">
@@ -26154,7 +26148,7 @@
       <c r="E580" s="3">
         <v>42736</v>
       </c>
-      <c r="F580" s="7">
+      <c r="F580" s="6">
         <v>70395</v>
       </c>
       <c r="G580" s="4">
@@ -26186,7 +26180,7 @@
       <c r="E581" s="3">
         <v>43101</v>
       </c>
-      <c r="F581" s="7">
+      <c r="F581" s="6">
         <v>76154</v>
       </c>
       <c r="G581" s="4">
@@ -26218,7 +26212,7 @@
       <c r="E582" s="3">
         <v>43466</v>
       </c>
-      <c r="F582" s="7">
+      <c r="F582" s="6">
         <v>76075</v>
       </c>
       <c r="G582" s="4">
@@ -26250,7 +26244,7 @@
       <c r="E583" s="3">
         <v>43831</v>
       </c>
-      <c r="F583" s="7">
+      <c r="F583" s="6">
         <v>76723</v>
       </c>
       <c r="G583" s="4">
@@ -26282,7 +26276,7 @@
       <c r="E584" s="3">
         <v>44197</v>
       </c>
-      <c r="F584" s="7">
+      <c r="F584" s="6">
         <v>81747</v>
       </c>
       <c r="G584" s="4">
@@ -26314,7 +26308,7 @@
       <c r="E585" s="3">
         <v>40544</v>
       </c>
-      <c r="F585" s="7">
+      <c r="F585" s="6">
         <v>60453</v>
       </c>
       <c r="G585" s="4">
@@ -26346,7 +26340,7 @@
       <c r="E586" s="3">
         <v>40909</v>
       </c>
-      <c r="F586" s="7">
+      <c r="F586" s="6">
         <v>61404</v>
       </c>
       <c r="G586" s="4">
@@ -26378,7 +26372,7 @@
       <c r="E587" s="3">
         <v>41275</v>
       </c>
-      <c r="F587" s="7">
+      <c r="F587" s="6">
         <v>60819</v>
       </c>
       <c r="G587" s="4">
@@ -26410,7 +26404,7 @@
       <c r="E588" s="3">
         <v>41640</v>
       </c>
-      <c r="F588" s="7">
+      <c r="F588" s="6">
         <v>62592</v>
       </c>
       <c r="G588" s="4">
@@ -26442,7 +26436,7 @@
       <c r="E589" s="3">
         <v>42005</v>
       </c>
-      <c r="F589" s="7">
+      <c r="F589" s="6">
         <v>64035</v>
       </c>
       <c r="G589" s="4">
@@ -26474,7 +26468,7 @@
       <c r="E590" s="3">
         <v>42370</v>
       </c>
-      <c r="F590" s="7">
+      <c r="F590" s="6">
         <v>68191</v>
       </c>
       <c r="G590" s="4">
@@ -26506,7 +26500,7 @@
       <c r="E591" s="3">
         <v>42736</v>
       </c>
-      <c r="F591" s="7">
+      <c r="F591" s="6">
         <v>69667</v>
       </c>
       <c r="G591" s="4">
@@ -26538,7 +26532,7 @@
       <c r="E592" s="3">
         <v>43101</v>
       </c>
-      <c r="F592" s="7">
+      <c r="F592" s="6">
         <v>72884</v>
       </c>
       <c r="G592" s="4">
@@ -26570,7 +26564,7 @@
       <c r="E593" s="3">
         <v>43466</v>
       </c>
-      <c r="F593" s="7">
+      <c r="F593" s="6">
         <v>81505</v>
       </c>
       <c r="G593" s="4">
@@ -26602,7 +26596,7 @@
       <c r="E594" s="3">
         <v>43831</v>
       </c>
-      <c r="F594" s="7">
+      <c r="F594" s="6">
         <v>75430</v>
       </c>
       <c r="G594" s="4">
@@ -26634,7 +26628,7 @@
       <c r="E595" s="3">
         <v>44197</v>
       </c>
-      <c r="F595" s="7">
+      <c r="F595" s="6">
         <v>77924</v>
       </c>
       <c r="G595" s="4">
@@ -26666,7 +26660,7 @@
       <c r="E596" s="3">
         <v>40544</v>
       </c>
-      <c r="F596" s="7">
+      <c r="F596" s="6">
         <v>44310</v>
       </c>
       <c r="G596" s="4">
@@ -26698,7 +26692,7 @@
       <c r="E597" s="3">
         <v>40909</v>
       </c>
-      <c r="F597" s="7">
+      <c r="F597" s="6">
         <v>43321</v>
       </c>
       <c r="G597" s="4">
@@ -26730,7 +26724,7 @@
       <c r="E598" s="3">
         <v>41275</v>
       </c>
-      <c r="F598" s="7">
+      <c r="F598" s="6">
         <v>42114</v>
       </c>
       <c r="G598" s="4">
@@ -26762,7 +26756,7 @@
       <c r="E599" s="3">
         <v>41640</v>
       </c>
-      <c r="F599" s="7">
+      <c r="F599" s="6">
         <v>40993</v>
       </c>
       <c r="G599" s="4">
@@ -26794,7 +26788,7 @@
       <c r="E600" s="3">
         <v>42005</v>
       </c>
-      <c r="F600" s="7">
+      <c r="F600" s="6">
         <v>46795</v>
       </c>
       <c r="G600" s="4">
@@ -26826,7 +26820,7 @@
       <c r="E601" s="3">
         <v>42370</v>
       </c>
-      <c r="F601" s="7">
+      <c r="F601" s="6">
         <v>49271</v>
       </c>
       <c r="G601" s="4">
@@ -26858,7 +26852,7 @@
       <c r="E602" s="3">
         <v>42736</v>
       </c>
-      <c r="F602" s="7">
+      <c r="F602" s="6">
         <v>51336</v>
       </c>
       <c r="G602" s="4">
@@ -26890,7 +26884,7 @@
       <c r="E603" s="3">
         <v>43101</v>
       </c>
-      <c r="F603" s="7">
+      <c r="F603" s="6">
         <v>54297</v>
       </c>
       <c r="G603" s="4">
@@ -26922,7 +26916,7 @@
       <c r="E604" s="3">
         <v>43466</v>
       </c>
-      <c r="F604" s="7">
+      <c r="F604" s="6">
         <v>59504</v>
       </c>
       <c r="G604" s="4">
@@ -26954,7 +26948,7 @@
       <c r="E605" s="3">
         <v>43831</v>
       </c>
-      <c r="F605" s="7">
+      <c r="F605" s="6">
         <v>58393</v>
       </c>
       <c r="G605" s="4">
@@ -26986,7 +26980,7 @@
       <c r="E606" s="3">
         <v>44197</v>
       </c>
-      <c r="F606" s="7">
+      <c r="F606" s="6">
         <v>69844</v>
       </c>
       <c r="G606" s="4">
@@ -27018,7 +27012,7 @@
       <c r="E607" s="3">
         <v>40544</v>
       </c>
-      <c r="F607" s="7">
+      <c r="F607" s="6">
         <v>44893</v>
       </c>
       <c r="G607" s="4">
@@ -27050,7 +27044,7 @@
       <c r="E608" s="3">
         <v>40909</v>
       </c>
-      <c r="F608" s="7">
+      <c r="F608" s="6">
         <v>49336</v>
       </c>
       <c r="G608" s="4">
@@ -27082,7 +27076,7 @@
       <c r="E609" s="3">
         <v>41275</v>
       </c>
-      <c r="F609" s="7">
+      <c r="F609" s="6">
         <v>49686</v>
       </c>
       <c r="G609" s="4">
@@ -27114,7 +27108,7 @@
       <c r="E610" s="3">
         <v>41640</v>
       </c>
-      <c r="F610" s="7">
+      <c r="F610" s="6">
         <v>52066</v>
       </c>
       <c r="G610" s="4">
@@ -27146,7 +27140,7 @@
       <c r="E611" s="3">
         <v>42005</v>
       </c>
-      <c r="F611" s="7">
+      <c r="F611" s="6">
         <v>51255</v>
       </c>
       <c r="G611" s="4">
@@ -27178,7 +27172,7 @@
       <c r="E612" s="3">
         <v>42370</v>
       </c>
-      <c r="F612" s="7">
+      <c r="F612" s="6">
         <v>54344</v>
       </c>
       <c r="G612" s="4">
@@ -27210,7 +27204,7 @@
       <c r="E613" s="3">
         <v>42736</v>
       </c>
-      <c r="F613" s="7">
+      <c r="F613" s="6">
         <v>53605</v>
       </c>
       <c r="G613" s="4">
@@ -27242,7 +27236,7 @@
       <c r="E614" s="3">
         <v>43101</v>
       </c>
-      <c r="F614" s="7">
+      <c r="F614" s="6">
         <v>56602</v>
       </c>
       <c r="G614" s="4">
@@ -27274,7 +27268,7 @@
       <c r="E615" s="3">
         <v>43466</v>
       </c>
-      <c r="F615" s="7">
+      <c r="F615" s="6">
         <v>55564</v>
       </c>
       <c r="G615" s="4">
@@ -27306,7 +27300,7 @@
       <c r="E616" s="3">
         <v>43831</v>
       </c>
-      <c r="F616" s="7">
+      <c r="F616" s="6">
         <v>57387</v>
       </c>
       <c r="G616" s="4">
@@ -27338,7 +27332,7 @@
       <c r="E617" s="3">
         <v>44197</v>
       </c>
-      <c r="F617" s="7">
+      <c r="F617" s="6">
         <v>59812</v>
       </c>
       <c r="G617" s="4">
@@ -27370,7 +27364,7 @@
       <c r="E618" s="3">
         <v>40544</v>
       </c>
-      <c r="F618" s="7">
+      <c r="F618" s="6">
         <v>51331</v>
       </c>
       <c r="G618" s="4">
@@ -27402,7 +27396,7 @@
       <c r="E619" s="3">
         <v>40909</v>
       </c>
-      <c r="F619" s="7">
+      <c r="F619" s="6">
         <v>52697</v>
       </c>
       <c r="G619" s="4">
@@ -27434,7 +27428,7 @@
       <c r="E620" s="3">
         <v>41275</v>
       </c>
-      <c r="F620" s="7">
+      <c r="F620" s="6">
         <v>54300</v>
       </c>
       <c r="G620" s="4">
@@ -27466,7 +27460,7 @@
       <c r="E621" s="3">
         <v>41640</v>
       </c>
-      <c r="F621" s="7">
+      <c r="F621" s="6">
         <v>58368</v>
       </c>
       <c r="G621" s="4">
@@ -27498,7 +27492,7 @@
       <c r="E622" s="3">
         <v>42005</v>
       </c>
-      <c r="F622" s="7">
+      <c r="F622" s="6">
         <v>61279</v>
       </c>
       <c r="G622" s="4">
@@ -27530,7 +27524,7 @@
       <c r="E623" s="3">
         <v>42370</v>
       </c>
-      <c r="F623" s="7">
+      <c r="F623" s="6">
         <v>63548</v>
       </c>
       <c r="G623" s="4">
@@ -27562,7 +27556,7 @@
       <c r="E624" s="3">
         <v>42736</v>
       </c>
-      <c r="F624" s="7">
+      <c r="F624" s="6">
         <v>66928</v>
       </c>
       <c r="G624" s="4">
@@ -27594,7 +27588,7 @@
       <c r="E625" s="3">
         <v>43101</v>
       </c>
-      <c r="F625" s="7">
+      <c r="F625" s="6">
         <v>67850</v>
       </c>
       <c r="G625" s="4">
@@ -27626,7 +27620,7 @@
       <c r="E626" s="3">
         <v>43466</v>
       </c>
-      <c r="F626" s="7">
+      <c r="F626" s="6">
         <v>71967</v>
       </c>
       <c r="G626" s="4">
@@ -27658,7 +27652,7 @@
       <c r="E627" s="3">
         <v>43831</v>
       </c>
-      <c r="F627" s="7">
+      <c r="F627" s="6">
         <v>72738</v>
       </c>
       <c r="G627" s="4">
@@ -27690,7 +27684,7 @@
       <c r="E628" s="3">
         <v>44197</v>
       </c>
-      <c r="F628" s="7">
+      <c r="F628" s="6">
         <v>76558</v>
       </c>
       <c r="G628" s="4">
@@ -27722,7 +27716,7 @@
       <c r="E629" s="3">
         <v>40544</v>
       </c>
-      <c r="F629" s="7">
+      <c r="F629" s="6">
         <v>51264</v>
       </c>
       <c r="G629" s="4">
@@ -27754,7 +27748,7 @@
       <c r="E630" s="3">
         <v>40909</v>
       </c>
-      <c r="F630" s="7">
+      <c r="F630" s="6">
         <v>53593</v>
       </c>
       <c r="G630" s="4">
@@ -27786,7 +27780,7 @@
       <c r="E631" s="3">
         <v>41275</v>
       </c>
-      <c r="F631" s="7">
+      <c r="F631" s="6">
         <v>47914</v>
       </c>
       <c r="G631" s="4">
@@ -27818,7 +27812,7 @@
       <c r="E632" s="3">
         <v>41640</v>
       </c>
-      <c r="F632" s="7">
+      <c r="F632" s="6">
         <v>50797</v>
       </c>
       <c r="G632" s="4">
@@ -27850,7 +27844,7 @@
       <c r="E633" s="3">
         <v>42005</v>
       </c>
-      <c r="F633" s="7">
+      <c r="F633" s="6">
         <v>54392</v>
       </c>
       <c r="G633" s="4">
@@ -27882,7 +27876,7 @@
       <c r="E634" s="3">
         <v>42370</v>
       </c>
-      <c r="F634" s="7">
+      <c r="F634" s="6">
         <v>61895</v>
       </c>
       <c r="G634" s="4">
@@ -27914,7 +27908,7 @@
       <c r="E635" s="3">
         <v>42736</v>
       </c>
-      <c r="F635" s="7">
+      <c r="F635" s="6">
         <v>65655</v>
       </c>
       <c r="G635" s="4">
@@ -27946,7 +27940,7 @@
       <c r="E636" s="3">
         <v>43101</v>
       </c>
-      <c r="F636" s="7">
+      <c r="F636" s="6">
         <v>65313</v>
       </c>
       <c r="G636" s="4">
@@ -27978,7 +27972,7 @@
       <c r="E637" s="3">
         <v>43466</v>
       </c>
-      <c r="F637" s="7">
+      <c r="F637" s="6">
         <v>70084</v>
       </c>
       <c r="G637" s="4">
@@ -28010,7 +28004,7 @@
       <c r="E638" s="3">
         <v>43831</v>
       </c>
-      <c r="F638" s="7">
+      <c r="F638" s="6">
         <v>72406</v>
       </c>
       <c r="G638" s="4">
@@ -28042,7 +28036,7 @@
       <c r="E639" s="3">
         <v>44197</v>
       </c>
-      <c r="F639" s="7">
+      <c r="F639" s="6">
         <v>80265</v>
       </c>
       <c r="G639" s="4">
@@ -28074,7 +28068,7 @@
       <c r="E640" s="3">
         <v>40544</v>
       </c>
-      <c r="F640" s="7">
+      <c r="F640" s="6">
         <v>40275</v>
       </c>
       <c r="G640" s="4">
@@ -28106,7 +28100,7 @@
       <c r="E641" s="3">
         <v>40909</v>
       </c>
-      <c r="F641" s="7">
+      <c r="F641" s="6">
         <v>41695</v>
       </c>
       <c r="G641" s="4">
@@ -28138,7 +28132,7 @@
       <c r="E642" s="3">
         <v>41275</v>
       </c>
-      <c r="F642" s="7">
+      <c r="F642" s="6">
         <v>41345</v>
       </c>
       <c r="G642" s="4">
@@ -28170,7 +28164,7 @@
       <c r="E643" s="3">
         <v>41640</v>
       </c>
-      <c r="F643" s="7">
+      <c r="F643" s="6">
         <v>41081</v>
       </c>
       <c r="G643" s="4">
@@ -28202,7 +28196,7 @@
       <c r="E644" s="3">
         <v>42005</v>
       </c>
-      <c r="F644" s="7">
+      <c r="F644" s="6">
         <v>44804</v>
       </c>
       <c r="G644" s="4">
@@ -28234,7 +28228,7 @@
       <c r="E645" s="3">
         <v>42370</v>
       </c>
-      <c r="F645" s="7">
+      <c r="F645" s="6">
         <v>46761</v>
       </c>
       <c r="G645" s="4">
@@ -28266,7 +28260,7 @@
       <c r="E646" s="3">
         <v>42736</v>
       </c>
-      <c r="F646" s="7">
+      <c r="F646" s="6">
         <v>47594</v>
       </c>
       <c r="G646" s="4">
@@ -28298,7 +28292,7 @@
       <c r="E647" s="3">
         <v>43101</v>
       </c>
-      <c r="F647" s="7">
+      <c r="F647" s="6">
         <v>51820</v>
       </c>
       <c r="G647" s="4">
@@ -28330,7 +28324,7 @@
       <c r="E648" s="3">
         <v>43466</v>
       </c>
-      <c r="F648" s="7">
+      <c r="F648" s="6">
         <v>58819</v>
       </c>
       <c r="G648" s="4">
@@ -28362,7 +28356,7 @@
       <c r="E649" s="3">
         <v>43831</v>
       </c>
-      <c r="F649" s="7">
+      <c r="F649" s="6">
         <v>55183</v>
       </c>
       <c r="G649" s="4">
@@ -28394,7 +28388,7 @@
       <c r="E650" s="3">
         <v>44197</v>
       </c>
-      <c r="F650" s="7">
+      <c r="F650" s="6">
         <v>54167</v>
       </c>
       <c r="G650" s="4">
@@ -28426,7 +28420,7 @@
       <c r="E651" s="3">
         <v>40544</v>
       </c>
-      <c r="F651" s="7">
+      <c r="F651" s="6">
         <v>87484</v>
       </c>
       <c r="G651" s="4">
@@ -28458,7 +28452,7 @@
       <c r="E652" s="3">
         <v>40909</v>
       </c>
-      <c r="F652" s="7">
+      <c r="F652" s="6">
         <v>96278</v>
       </c>
       <c r="G652" s="4">
@@ -28490,7 +28484,7 @@
       <c r="E653" s="3">
         <v>41275</v>
       </c>
-      <c r="F653" s="7">
+      <c r="F653" s="6">
         <v>87830</v>
       </c>
       <c r="G653" s="4">
@@ -28522,7 +28516,7 @@
       <c r="E654" s="3">
         <v>41640</v>
       </c>
-      <c r="F654" s="7">
+      <c r="F654" s="6">
         <v>90743</v>
       </c>
       <c r="G654" s="4">
@@ -28554,7 +28548,7 @@
       <c r="E655" s="3">
         <v>42005</v>
       </c>
-      <c r="F655" s="7">
+      <c r="F655" s="6">
         <v>93781</v>
       </c>
       <c r="G655" s="4">
@@ -28586,7 +28580,7 @@
       <c r="E656" s="3">
         <v>42370</v>
       </c>
-      <c r="F656" s="7">
+      <c r="F656" s="6">
         <v>97496</v>
       </c>
       <c r="G656" s="4">
@@ -28618,7 +28612,7 @@
       <c r="E657" s="3">
         <v>42736</v>
       </c>
-      <c r="F657" s="7">
+      <c r="F657" s="6">
         <v>104185</v>
       </c>
       <c r="G657" s="4">
@@ -28650,7 +28644,7 @@
       <c r="E658" s="3">
         <v>43101</v>
       </c>
-      <c r="F658" s="7">
+      <c r="F658" s="6">
         <v>101667</v>
       </c>
       <c r="G658" s="4">
@@ -28682,7 +28676,7 @@
       <c r="E659" s="3">
         <v>43466</v>
       </c>
-      <c r="F659" s="7">
+      <c r="F659" s="6">
         <v>111574</v>
       </c>
       <c r="G659" s="4">
@@ -28714,7 +28708,7 @@
       <c r="E660" s="3">
         <v>43831</v>
       </c>
-      <c r="F660" s="7">
+      <c r="F660" s="6">
         <v>108318</v>
       </c>
       <c r="G660" s="4">
@@ -28746,7 +28740,7 @@
       <c r="E661" s="3">
         <v>44197</v>
       </c>
-      <c r="F661" s="7">
+      <c r="F661" s="6">
         <v>105774</v>
       </c>
       <c r="G661" s="4">
@@ -28778,7 +28772,7 @@
       <c r="E662" s="3">
         <v>40544</v>
       </c>
-      <c r="F662" s="7">
+      <c r="F662" s="6">
         <v>31301</v>
       </c>
       <c r="G662" s="4">
@@ -28810,7 +28804,7 @@
       <c r="E663" s="3">
         <v>40909</v>
       </c>
-      <c r="F663" s="7">
+      <c r="F663" s="6">
         <v>30188</v>
       </c>
       <c r="G663" s="4">
@@ -28842,7 +28836,7 @@
       <c r="E664" s="3">
         <v>41275</v>
       </c>
-      <c r="F664" s="7">
+      <c r="F664" s="6">
         <v>34605</v>
       </c>
       <c r="G664" s="4">
@@ -28874,7 +28868,7 @@
       <c r="E665" s="3">
         <v>41640</v>
       </c>
-      <c r="F665" s="7">
+      <c r="F665" s="6">
         <v>32688</v>
       </c>
       <c r="G665" s="4">
@@ -28906,7 +28900,7 @@
       <c r="E666" s="3">
         <v>42005</v>
       </c>
-      <c r="F666" s="7">
+      <c r="F666" s="6">
         <v>35001</v>
       </c>
       <c r="G666" s="4">
@@ -28938,7 +28932,7 @@
       <c r="E667" s="3">
         <v>42370</v>
       </c>
-      <c r="F667" s="7">
+      <c r="F667" s="6">
         <v>38539</v>
       </c>
       <c r="G667" s="4">
@@ -28970,7 +28964,7 @@
       <c r="E668" s="3">
         <v>42736</v>
       </c>
-      <c r="F668" s="7">
+      <c r="F668" s="6">
         <v>38938</v>
       </c>
       <c r="G668" s="4">
@@ -29002,7 +28996,7 @@
       <c r="E669" s="3">
         <v>43101</v>
       </c>
-      <c r="F669" s="7">
+      <c r="F669" s="6">
         <v>43585</v>
       </c>
       <c r="G669" s="4">
@@ -29034,7 +29028,7 @@
       <c r="E670" s="3">
         <v>43466</v>
       </c>
-      <c r="F670" s="7">
+      <c r="F670" s="6">
         <v>46260</v>
       </c>
       <c r="G670" s="4">
@@ -29066,7 +29060,7 @@
       <c r="E671" s="3">
         <v>43831</v>
       </c>
-      <c r="F671" s="7">
+      <c r="F671" s="6">
         <v>42663</v>
       </c>
       <c r="G671" s="4">
@@ -29098,7 +29092,7 @@
       <c r="E672" s="3">
         <v>44197</v>
       </c>
-      <c r="F672" s="7">
+      <c r="F672" s="6">
         <v>42733</v>
       </c>
       <c r="G672" s="4">
@@ -29130,7 +29124,7 @@
       <c r="E673" s="3">
         <v>40544</v>
       </c>
-      <c r="F673" s="7">
+      <c r="F673" s="6">
         <v>31731</v>
       </c>
       <c r="G673" s="4">
@@ -29162,7 +29156,7 @@
       <c r="E674" s="3">
         <v>40909</v>
       </c>
-      <c r="F674" s="7">
+      <c r="F674" s="6">
         <v>31293</v>
       </c>
       <c r="G674" s="4">
@@ -29194,7 +29188,7 @@
       <c r="E675" s="3">
         <v>41275</v>
       </c>
-      <c r="F675" s="7">
+      <c r="F675" s="6">
         <v>32973</v>
       </c>
       <c r="G675" s="4">
@@ -29226,7 +29220,7 @@
       <c r="E676" s="3">
         <v>41640</v>
       </c>
-      <c r="F676" s="7">
+      <c r="F676" s="6">
         <v>35947</v>
       </c>
       <c r="G676" s="4">
@@ -29258,7 +29252,7 @@
       <c r="E677" s="3">
         <v>42005</v>
       </c>
-      <c r="F677" s="7">
+      <c r="F677" s="6">
         <v>30966</v>
       </c>
       <c r="G677" s="4">
@@ -29290,7 +29284,7 @@
       <c r="E678" s="3">
         <v>42370</v>
       </c>
-      <c r="F678" s="7">
+      <c r="F678" s="6">
         <v>31100</v>
       </c>
       <c r="G678" s="4">
@@ -29322,7 +29316,7 @@
       <c r="E679" s="3">
         <v>42736</v>
       </c>
-      <c r="F679" s="7">
+      <c r="F679" s="6">
         <v>35167</v>
       </c>
       <c r="G679" s="4">
@@ -29354,7 +29348,7 @@
       <c r="E680" s="3">
         <v>43101</v>
       </c>
-      <c r="F680" s="7">
+      <c r="F680" s="6">
         <v>37642</v>
       </c>
       <c r="G680" s="4">
@@ -29386,7 +29380,7 @@
       <c r="E681" s="3">
         <v>43466</v>
       </c>
-      <c r="F681" s="7">
+      <c r="F681" s="6">
         <v>40235</v>
       </c>
       <c r="G681" s="4">
@@ -29418,7 +29412,7 @@
       <c r="E682" s="3">
         <v>43831</v>
       </c>
-      <c r="F682" s="7">
+      <c r="F682" s="6">
         <v>37476</v>
       </c>
       <c r="G682" s="4">
@@ -29450,7 +29444,7 @@
       <c r="E683" s="3">
         <v>44197</v>
       </c>
-      <c r="F683" s="7">
+      <c r="F683" s="6">
         <v>43242</v>
       </c>
       <c r="G683" s="4">
@@ -29482,7 +29476,7 @@
       <c r="E684" s="3">
         <v>40544</v>
       </c>
-      <c r="F684" s="7">
+      <c r="F684" s="6">
         <v>42069</v>
       </c>
       <c r="G684" s="4">
@@ -29514,7 +29508,7 @@
       <c r="E685" s="3">
         <v>40909</v>
       </c>
-      <c r="F685" s="7">
+      <c r="F685" s="6">
         <v>48235</v>
       </c>
       <c r="G685" s="4">
@@ -29546,7 +29540,7 @@
       <c r="E686" s="3">
         <v>41275</v>
       </c>
-      <c r="F686" s="7">
+      <c r="F686" s="6">
         <v>49469</v>
       </c>
       <c r="G686" s="4">
@@ -29578,7 +29572,7 @@
       <c r="E687" s="3">
         <v>41640</v>
       </c>
-      <c r="F687" s="7">
+      <c r="F687" s="6">
         <v>48855</v>
       </c>
       <c r="G687" s="4">
@@ -29610,7 +29604,7 @@
       <c r="E688" s="3">
         <v>42005</v>
       </c>
-      <c r="F688" s="7">
+      <c r="F688" s="6">
         <v>50267</v>
       </c>
       <c r="G688" s="4">
@@ -29642,7 +29636,7 @@
       <c r="E689" s="3">
         <v>42370</v>
       </c>
-      <c r="F689" s="7">
+      <c r="F689" s="6">
         <v>54085</v>
       </c>
       <c r="G689" s="4">
@@ -29674,7 +29668,7 @@
       <c r="E690" s="3">
         <v>42736</v>
       </c>
-      <c r="F690" s="7">
+      <c r="F690" s="6">
         <v>54290</v>
       </c>
       <c r="G690" s="4">
@@ -29706,7 +29700,7 @@
       <c r="E691" s="3">
         <v>43101</v>
       </c>
-      <c r="F691" s="7">
+      <c r="F691" s="6">
         <v>59033</v>
       </c>
       <c r="G691" s="4">
@@ -29738,7 +29732,7 @@
       <c r="E692" s="3">
         <v>43466</v>
       </c>
-      <c r="F692" s="7">
+      <c r="F692" s="6">
         <v>63174</v>
       </c>
       <c r="G692" s="4">
@@ -29770,7 +29764,7 @@
       <c r="E693" s="3">
         <v>43831</v>
       </c>
-      <c r="F693" s="7">
+      <c r="F693" s="6">
         <v>59717</v>
       </c>
       <c r="G693" s="4">
@@ -29802,7 +29796,7 @@
       <c r="E694" s="3">
         <v>44197</v>
       </c>
-      <c r="F694" s="7">
+      <c r="F694" s="6">
         <v>66098</v>
       </c>
       <c r="G694" s="4">
@@ -29834,7 +29828,7 @@
       <c r="E695" s="3">
         <v>40544</v>
       </c>
-      <c r="F695" s="7">
+      <c r="F695" s="6">
         <v>35947</v>
       </c>
       <c r="G695" s="4">
@@ -29866,7 +29860,7 @@
       <c r="E696" s="3">
         <v>40909</v>
       </c>
-      <c r="F696" s="7">
+      <c r="F696" s="6">
         <v>39884</v>
       </c>
       <c r="G696" s="4">
@@ -29898,7 +29892,7 @@
       <c r="E697" s="3">
         <v>41275</v>
       </c>
-      <c r="F697" s="7">
+      <c r="F697" s="6">
         <v>42004</v>
       </c>
       <c r="G697" s="4">
@@ -29930,7 +29924,7 @@
       <c r="E698" s="3">
         <v>41640</v>
       </c>
-      <c r="F698" s="7">
+      <c r="F698" s="6">
         <v>41074</v>
       </c>
       <c r="G698" s="4">
@@ -29962,7 +29956,7 @@
       <c r="E699" s="3">
         <v>42005</v>
       </c>
-      <c r="F699" s="7">
+      <c r="F699" s="6">
         <v>41293</v>
       </c>
       <c r="G699" s="4">
@@ -29994,7 +29988,7 @@
       <c r="E700" s="3">
         <v>42370</v>
       </c>
-      <c r="F700" s="7">
+      <c r="F700" s="6">
         <v>44707</v>
       </c>
       <c r="G700" s="4">
@@ -30026,7 +30020,7 @@
       <c r="E701" s="3">
         <v>42736</v>
       </c>
-      <c r="F701" s="7">
+      <c r="F701" s="6">
         <v>45851</v>
       </c>
       <c r="G701" s="4">
@@ -30058,7 +30052,7 @@
       <c r="E702" s="3">
         <v>43101</v>
       </c>
-      <c r="F702" s="7">
+      <c r="F702" s="6">
         <v>47417</v>
       </c>
       <c r="G702" s="4">
@@ -30090,7 +30084,7 @@
       <c r="E703" s="3">
         <v>43466</v>
       </c>
-      <c r="F703" s="7">
+      <c r="F703" s="6">
         <v>53799</v>
       </c>
       <c r="G703" s="4">
@@ -30122,7 +30116,7 @@
       <c r="E704" s="3">
         <v>43831</v>
       </c>
-      <c r="F704" s="7">
+      <c r="F704" s="6">
         <v>50536</v>
       </c>
       <c r="G704" s="4">
@@ -30154,7 +30148,7 @@
       <c r="E705" s="3">
         <v>44197</v>
       </c>
-      <c r="F705" s="7">
+      <c r="F705" s="6">
         <v>57821</v>
       </c>
       <c r="G705" s="4">
@@ -30186,7 +30180,7 @@
       <c r="E706" s="3">
         <v>40544</v>
       </c>
-      <c r="F706" s="7">
+      <c r="F706" s="6">
         <v>39637</v>
       </c>
       <c r="G706" s="4">
@@ -30218,7 +30212,7 @@
       <c r="E707" s="3">
         <v>40909</v>
       </c>
-      <c r="F707" s="7">
+      <c r="F707" s="6">
         <v>39336</v>
       </c>
       <c r="G707" s="4">
@@ -30250,7 +30244,7 @@
       <c r="E708" s="3">
         <v>41275</v>
       </c>
-      <c r="F708" s="7">
+      <c r="F708" s="6">
         <v>41150</v>
       </c>
       <c r="G708" s="4">
@@ -30282,7 +30276,7 @@
       <c r="E709" s="3">
         <v>41640</v>
       </c>
-      <c r="F709" s="7">
+      <c r="F709" s="6">
         <v>41181</v>
       </c>
       <c r="G709" s="4">
@@ -30314,7 +30308,7 @@
       <c r="E710" s="3">
         <v>42005</v>
       </c>
-      <c r="F710" s="7">
+      <c r="F710" s="6">
         <v>44934</v>
       </c>
       <c r="G710" s="4">
@@ -30346,7 +30340,7 @@
       <c r="E711" s="3">
         <v>42370</v>
       </c>
-      <c r="F711" s="7">
+      <c r="F711" s="6">
         <v>45064</v>
       </c>
       <c r="G711" s="4">
@@ -30378,7 +30372,7 @@
       <c r="E712" s="3">
         <v>42736</v>
       </c>
-      <c r="F712" s="7">
+      <c r="F712" s="6">
         <v>47043</v>
       </c>
       <c r="G712" s="4">
@@ -30410,7 +30404,7 @@
       <c r="E713" s="3">
         <v>43101</v>
       </c>
-      <c r="F713" s="7">
+      <c r="F713" s="6">
         <v>45787</v>
       </c>
       <c r="G713" s="4">
@@ -30442,7 +30436,7 @@
       <c r="E714" s="3">
         <v>43466</v>
       </c>
-      <c r="F714" s="7">
+      <c r="F714" s="6">
         <v>49748</v>
       </c>
       <c r="G714" s="4">
@@ -30474,7 +30468,7 @@
       <c r="E715" s="3">
         <v>43831</v>
       </c>
-      <c r="F715" s="7">
+      <c r="F715" s="6">
         <v>49492</v>
       </c>
       <c r="G715" s="4">
@@ -30506,7 +30500,7 @@
       <c r="E716" s="3">
         <v>44197</v>
       </c>
-      <c r="F716" s="7">
+      <c r="F716" s="6">
         <v>51825</v>
       </c>
       <c r="G716" s="4">
@@ -30538,7 +30532,7 @@
       <c r="E717" s="3">
         <v>40544</v>
       </c>
-      <c r="F717" s="7">
+      <c r="F717" s="6">
         <v>32570</v>
       </c>
       <c r="G717" s="4">
@@ -30570,7 +30564,7 @@
       <c r="E718" s="3">
         <v>40909</v>
       </c>
-      <c r="F718" s="7">
+      <c r="F718" s="6">
         <v>31997</v>
       </c>
       <c r="G718" s="4">
@@ -30602,7 +30596,7 @@
       <c r="E719" s="3">
         <v>41275</v>
       </c>
-      <c r="F719" s="7">
+      <c r="F719" s="6">
         <v>34488</v>
       </c>
       <c r="G719" s="4">
@@ -30634,7 +30628,7 @@
       <c r="E720" s="3">
         <v>41640</v>
       </c>
-      <c r="F720" s="7">
+      <c r="F720" s="6">
         <v>35959</v>
       </c>
       <c r="G720" s="4">
@@ -30666,7 +30660,7 @@
       <c r="E721" s="3">
         <v>42005</v>
       </c>
-      <c r="F721" s="7">
+      <c r="F721" s="6">
         <v>38397</v>
       </c>
       <c r="G721" s="4">
@@ -30698,7 +30692,7 @@
       <c r="E722" s="3">
         <v>42370</v>
       </c>
-      <c r="F722" s="7">
+      <c r="F722" s="6">
         <v>40346</v>
       </c>
       <c r="G722" s="4">
@@ -30730,7 +30724,7 @@
       <c r="E723" s="3">
         <v>42736</v>
       </c>
-      <c r="F723" s="7">
+      <c r="F723" s="6">
         <v>41441</v>
       </c>
       <c r="G723" s="4">
@@ -30762,7 +30756,7 @@
       <c r="E724" s="3">
         <v>43101</v>
       </c>
-      <c r="F724" s="7">
+      <c r="F724" s="6">
         <v>43889</v>
       </c>
       <c r="G724" s="4">
@@ -30794,7 +30788,7 @@
       <c r="E725" s="3">
         <v>43466</v>
       </c>
-      <c r="F725" s="7">
+      <c r="F725" s="6">
         <v>47176</v>
       </c>
       <c r="G725" s="4">
@@ -30826,7 +30820,7 @@
       <c r="E726" s="3">
         <v>43831</v>
       </c>
-      <c r="F726" s="7">
+      <c r="F726" s="6">
         <v>45782</v>
       </c>
       <c r="G726" s="4">
@@ -30858,7 +30852,7 @@
       <c r="E727" s="3">
         <v>44197</v>
       </c>
-      <c r="F727" s="7">
+      <c r="F727" s="6">
         <v>49965</v>
       </c>
       <c r="G727" s="4">
@@ -30890,7 +30884,7 @@
       <c r="E728" s="3">
         <v>40544</v>
       </c>
-      <c r="F728" s="7">
+      <c r="F728" s="6">
         <v>46670</v>
       </c>
       <c r="G728" s="4">
@@ -30922,7 +30916,7 @@
       <c r="E729" s="3">
         <v>40909</v>
       </c>
-      <c r="F729" s="7">
+      <c r="F729" s="6">
         <v>48070</v>
       </c>
       <c r="G729" s="4">
@@ -30954,7 +30948,7 @@
       <c r="E730" s="3">
         <v>41275</v>
       </c>
-      <c r="F730" s="7">
+      <c r="F730" s="6">
         <v>49419</v>
       </c>
       <c r="G730" s="4">
@@ -30986,7 +30980,7 @@
       <c r="E731" s="3">
         <v>41640</v>
       </c>
-      <c r="F731" s="7">
+      <c r="F731" s="6">
         <v>50241</v>
       </c>
       <c r="G731" s="4">
@@ -31018,7 +31012,7 @@
       <c r="E732" s="3">
         <v>42005</v>
       </c>
-      <c r="F732" s="7">
+      <c r="F732" s="6">
         <v>51503</v>
       </c>
       <c r="G732" s="4">
@@ -31050,7 +31044,7 @@
       <c r="E733" s="3">
         <v>42370</v>
       </c>
-      <c r="F733" s="7">
+      <c r="F733" s="6">
         <v>55792</v>
       </c>
       <c r="G733" s="4">
@@ -31082,7 +31076,7 @@
       <c r="E734" s="3">
         <v>42736</v>
       </c>
-      <c r="F734" s="7">
+      <c r="F734" s="6">
         <v>56160</v>
       </c>
       <c r="G734" s="4">
@@ -31114,7 +31108,7 @@
       <c r="E735" s="3">
         <v>43101</v>
       </c>
-      <c r="F735" s="7">
+      <c r="F735" s="6">
         <v>55388</v>
       </c>
       <c r="G735" s="4">
@@ -31146,7 +31140,7 @@
       <c r="E736" s="3">
         <v>43466</v>
       </c>
-      <c r="F736" s="7">
+      <c r="F736" s="6">
         <v>59228</v>
       </c>
       <c r="G736" s="4">
@@ -31178,7 +31172,7 @@
       <c r="E737" s="3">
         <v>43831</v>
       </c>
-      <c r="F737" s="7">
+      <c r="F737" s="6">
         <v>60063</v>
       </c>
       <c r="G737" s="4">
@@ -31210,7 +31204,7 @@
       <c r="E738" s="3">
         <v>44197</v>
       </c>
-      <c r="F738" s="7">
+      <c r="F738" s="6">
         <v>62294</v>
       </c>
       <c r="G738" s="4">
@@ -31242,7 +31236,7 @@
       <c r="E739" s="3">
         <v>40544</v>
       </c>
-      <c r="F739" s="7">
+      <c r="F739" s="6">
         <v>80184</v>
       </c>
       <c r="G739" s="4">
@@ -31274,7 +31268,7 @@
       <c r="E740" s="3">
         <v>40909</v>
       </c>
-      <c r="F740" s="7">
+      <c r="F740" s="6">
         <v>81475</v>
       </c>
       <c r="G740" s="4">
@@ -31306,7 +31300,7 @@
       <c r="E741" s="3">
         <v>41275</v>
       </c>
-      <c r="F741" s="7">
+      <c r="F741" s="6">
         <v>80448</v>
       </c>
       <c r="G741" s="4">
@@ -31338,7 +31332,7 @@
       <c r="E742" s="3">
         <v>41640</v>
       </c>
-      <c r="F742" s="7">
+      <c r="F742" s="6">
         <v>81571</v>
       </c>
       <c r="G742" s="4">
@@ -31370,7 +31364,7 @@
       <c r="E743" s="3">
         <v>42005</v>
       </c>
-      <c r="F743" s="7">
+      <c r="F743" s="6">
         <v>83769</v>
       </c>
       <c r="G743" s="4">
@@ -31402,7 +31396,7 @@
       <c r="E744" s="3">
         <v>42370</v>
       </c>
-      <c r="F744" s="7">
+      <c r="F744" s="6">
         <v>88398</v>
       </c>
       <c r="G744" s="4">
@@ -31434,7 +31428,7 @@
       <c r="E745" s="3">
         <v>42736</v>
       </c>
-      <c r="F745" s="7">
+      <c r="F745" s="6">
         <v>94306</v>
       </c>
       <c r="G745" s="4">
@@ -31466,7 +31460,7 @@
       <c r="E746" s="3">
         <v>43101</v>
       </c>
-      <c r="F746" s="7">
+      <c r="F746" s="6">
         <v>93012</v>
       </c>
       <c r="G746" s="4">
@@ -31498,7 +31492,7 @@
       <c r="E747" s="3">
         <v>43466</v>
       </c>
-      <c r="F747" s="7">
+      <c r="F747" s="6">
         <v>93321</v>
       </c>
       <c r="G747" s="4">
@@ -31530,7 +31524,7 @@
       <c r="E748" s="3">
         <v>43831</v>
       </c>
-      <c r="F748" s="7">
+      <c r="F748" s="6">
         <v>96348</v>
       </c>
       <c r="G748" s="4">
@@ -31562,7 +31556,7 @@
       <c r="E749" s="3">
         <v>44197</v>
       </c>
-      <c r="F749" s="7">
+      <c r="F749" s="6">
         <v>95002</v>
       </c>
       <c r="G749" s="4">
@@ -31594,7 +31588,7 @@
       <c r="E750" s="3">
         <v>40544</v>
       </c>
-      <c r="F750" s="7">
+      <c r="F750" s="6">
         <v>72813</v>
       </c>
       <c r="G750" s="4">
@@ -31626,7 +31620,7 @@
       <c r="E751" s="3">
         <v>40909</v>
       </c>
-      <c r="F751" s="7">
+      <c r="F751" s="6">
         <v>72575</v>
       </c>
       <c r="G751" s="4">
@@ -31658,7 +31652,7 @@
       <c r="E752" s="3">
         <v>41275</v>
       </c>
-      <c r="F752" s="7">
+      <c r="F752" s="6">
         <v>79045</v>
       </c>
       <c r="G752" s="4">
@@ -31690,7 +31684,7 @@
       <c r="E753" s="3">
         <v>41640</v>
       </c>
-      <c r="F753" s="7">
+      <c r="F753" s="6">
         <v>76337</v>
       </c>
       <c r="G753" s="4">
@@ -31722,7 +31716,7 @@
       <c r="E754" s="3">
         <v>42005</v>
       </c>
-      <c r="F754" s="7">
+      <c r="F754" s="6">
         <v>78662</v>
       </c>
       <c r="G754" s="4">
@@ -31754,7 +31748,7 @@
       <c r="E755" s="3">
         <v>42370</v>
       </c>
-      <c r="F755" s="7">
+      <c r="F755" s="6">
         <v>85634</v>
       </c>
       <c r="G755" s="4">
@@ -31786,7 +31780,7 @@
       <c r="E756" s="3">
         <v>42736</v>
       </c>
-      <c r="F756" s="7">
+      <c r="F756" s="6">
         <v>79166</v>
       </c>
       <c r="G756" s="4">
@@ -31818,7 +31812,7 @@
       <c r="E757" s="3">
         <v>43101</v>
       </c>
-      <c r="F757" s="7">
+      <c r="F757" s="6">
         <v>83648</v>
       </c>
       <c r="G757" s="4">
@@ -31850,7 +31844,7 @@
       <c r="E758" s="3">
         <v>43466</v>
       </c>
-      <c r="F758" s="7">
+      <c r="F758" s="6">
         <v>82716</v>
       </c>
       <c r="G758" s="4">
@@ -31882,7 +31876,7 @@
       <c r="E759" s="3">
         <v>43831</v>
       </c>
-      <c r="F759" s="7">
+      <c r="F759" s="6">
         <v>84813</v>
       </c>
       <c r="G759" s="4">
@@ -31914,7 +31908,7 @@
       <c r="E760" s="3">
         <v>44197</v>
       </c>
-      <c r="F760" s="7">
+      <c r="F760" s="6">
         <v>86654</v>
       </c>
       <c r="G760" s="4">
@@ -31946,7 +31940,7 @@
       <c r="E761" s="3">
         <v>40544</v>
       </c>
-      <c r="F761" s="7">
+      <c r="F761" s="6">
         <v>43654</v>
       </c>
       <c r="G761" s="4">
@@ -31978,7 +31972,7 @@
       <c r="E762" s="3">
         <v>40909</v>
       </c>
-      <c r="F762" s="7">
+      <c r="F762" s="6">
         <v>49332</v>
       </c>
       <c r="G762" s="4">
@@ -32010,7 +32004,7 @@
       <c r="E763" s="3">
         <v>41275</v>
       </c>
-      <c r="F763" s="7">
+      <c r="F763" s="6">
         <v>50522</v>
       </c>
       <c r="G763" s="4">
@@ -32042,7 +32036,7 @@
       <c r="E764" s="3">
         <v>41640</v>
       </c>
-      <c r="F764" s="7">
+      <c r="F764" s="6">
         <v>48731</v>
       </c>
       <c r="G764" s="4">
@@ -32074,7 +32068,7 @@
       <c r="E765" s="3">
         <v>42005</v>
       </c>
-      <c r="F765" s="7">
+      <c r="F765" s="6">
         <v>52106</v>
       </c>
       <c r="G765" s="4">
@@ -32106,7 +32100,7 @@
       <c r="E766" s="3">
         <v>42370</v>
       </c>
-      <c r="F766" s="7">
+      <c r="F766" s="6">
         <v>52208</v>
       </c>
       <c r="G766" s="4">
@@ -32138,7 +32132,7 @@
       <c r="E767" s="3">
         <v>42736</v>
       </c>
-      <c r="F767" s="7">
+      <c r="F767" s="6">
         <v>56375</v>
       </c>
       <c r="G767" s="4">
@@ -32170,7 +32164,7 @@
       <c r="E768" s="3">
         <v>43101</v>
       </c>
-      <c r="F768" s="7">
+      <c r="F768" s="6">
         <v>54840</v>
       </c>
       <c r="G768" s="4">
@@ -32202,7 +32196,7 @@
       <c r="E769" s="3">
         <v>43466</v>
       </c>
-      <c r="F769" s="7">
+      <c r="F769" s="6">
         <v>65534</v>
       </c>
       <c r="G769" s="4">
@@ -32234,7 +32228,7 @@
       <c r="E770" s="3">
         <v>43831</v>
       </c>
-      <c r="F770" s="7">
+      <c r="F770" s="6">
         <v>61962</v>
       </c>
       <c r="G770" s="4">
@@ -32266,7 +32260,7 @@
       <c r="E771" s="3">
         <v>44197</v>
       </c>
-      <c r="F771" s="7">
+      <c r="F771" s="6">
         <v>71343</v>
       </c>
       <c r="G771" s="4">
@@ -32298,7 +32292,7 @@
       <c r="E772" s="3">
         <v>40544</v>
       </c>
-      <c r="F772" s="7">
+      <c r="F772" s="6">
         <v>56843</v>
       </c>
       <c r="G772" s="4">
@@ -32330,7 +32324,7 @@
       <c r="E773" s="3">
         <v>40909</v>
       </c>
-      <c r="F773" s="7">
+      <c r="F773" s="6">
         <v>56794</v>
       </c>
       <c r="G773" s="4">
@@ -32362,7 +32356,7 @@
       <c r="E774" s="3">
         <v>41275</v>
       </c>
-      <c r="F774" s="7">
+      <c r="F774" s="6">
         <v>54700</v>
       </c>
       <c r="G774" s="4">
@@ -32394,7 +32388,7 @@
       <c r="E775" s="3">
         <v>41640</v>
       </c>
-      <c r="F775" s="7">
+      <c r="F775" s="6">
         <v>60497</v>
       </c>
       <c r="G775" s="4">
@@ -32426,7 +32420,7 @@
       <c r="E776" s="3">
         <v>42005</v>
       </c>
-      <c r="F776" s="7">
+      <c r="F776" s="6">
         <v>59485</v>
       </c>
       <c r="G776" s="4">
@@ -32458,7 +32452,7 @@
       <c r="E777" s="3">
         <v>42370</v>
       </c>
-      <c r="F777" s="7">
+      <c r="F777" s="6">
         <v>63227</v>
       </c>
       <c r="G777" s="4">
@@ -32490,7 +32484,7 @@
       <c r="E778" s="3">
         <v>42736</v>
       </c>
-      <c r="F778" s="7">
+      <c r="F778" s="6">
         <v>66264</v>
       </c>
       <c r="G778" s="4">
@@ -32522,7 +32516,7 @@
       <c r="E779" s="3">
         <v>43101</v>
       </c>
-      <c r="F779" s="7">
+      <c r="F779" s="6">
         <v>72561</v>
       </c>
       <c r="G779" s="4">
@@ -32554,7 +32548,7 @@
       <c r="E780" s="3">
         <v>43466</v>
       </c>
-      <c r="F780" s="7">
+      <c r="F780" s="6">
         <v>81693</v>
       </c>
       <c r="G780" s="4">
@@ -32586,7 +32580,7 @@
       <c r="E781" s="3">
         <v>43831</v>
       </c>
-      <c r="F781" s="7">
+      <c r="F781" s="6">
         <v>76444</v>
       </c>
       <c r="G781" s="4">
@@ -32618,7 +32612,7 @@
       <c r="E782" s="3">
         <v>44197</v>
       </c>
-      <c r="F782" s="7">
+      <c r="F782" s="6">
         <v>81958</v>
       </c>
       <c r="G782" s="4">
